--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>【主人公】</t>
     <rPh sb="1" eb="4">
@@ -367,13 +367,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仮ステージ</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・いけない所は止まる(崖や届かない段差)</t>
     <rPh sb="6" eb="7">
       <t>トコロ</t>
@@ -407,16 +400,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・今は特になし</t>
-    <rPh sb="1" eb="2">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【注意事項】</t>
     <rPh sb="1" eb="5">
       <t>チュウイジコウ</t>
@@ -506,13 +489,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・仮ステージ</t>
-    <rPh sb="1" eb="2">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・ステージの詳細</t>
     <rPh sb="6" eb="8">
       <t>ショウサイ</t>
@@ -535,19 +511,6 @@
     </rPh>
     <rPh sb="59" eb="60">
       <t>ワル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・ゴールまで行ったら一旦「ゴール」ってテキスト出す</t>
-    <rPh sb="6" eb="7">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イッタン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1041,6 +1004,319 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・操作出来るオブジェクト</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・地面と色が違う、動かせるブロックがある</t>
+    <rPh sb="2" eb="4">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・基本的にプレイヤーはこれを操作して攻略する</t>
+    <rPh sb="2" eb="5">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウリャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・コスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・画面に置けるオブジェクトの上限</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・色の違う物のみをカウントする</t>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>　・ブロックの数ではなく、選択できるオブジェクトの数を見る(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2つのブロックを1つにまとめてコピペなどをした場合、コストは1になる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ツールバー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ゴール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・プレイヤーはキャラクターをここまで連れて行く</t>
+    <rPh sb="19" eb="20">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・コストの上限</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・使用出来るオブジェクトの上限</t>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コストをオーバーした状態で動かすとゲームオーバー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ブルスクなど？)</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面詳細</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ゲーム内のオプションなどはここに表示</t>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ページ切替ボタン</t>
+    <rPh sb="5" eb="7">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　・ページの切り替えは攻略に使用</t>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　・ここのボタンを押すとページの切り替えが出来る</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・モード切り替え</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　・ここのボタンを押すと「主人公操作」と「オブジェクト操作」を切り替えれる</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　※その他、音量調整など、何か機能を追加する場合ここに追加する</t>
+    <rPh sb="4" eb="5">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3594,7 +3870,10 @@
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3771,17 +4050,17 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>このオブジェクトがコピー出来る</a:t>
+            <a:t>色の違うオブジェクトは操作することが出来る</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -3790,14 +4069,14 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>コピーして、下に配置することで通れる</a:t>
+            <a:t>この場合、コピーして下に配置することで通れる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -3966,6 +4245,439 @@
               </a:solidFill>
             </a:rPr>
             <a:t>主人公です</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>576513</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228599" y="4600575"/>
+          <a:ext cx="7902743" cy="250157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97871</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336742</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>227058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2155271" y="4592310"/>
+          <a:ext cx="238871" cy="159123"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>460000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10823</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>225799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2517400" y="4591051"/>
+          <a:ext cx="236623" cy="159123"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552452</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
+                      <a14:foregroundMark x1="23944" y1="57746" x2="30986" y2="64789"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7115176" y="4533900"/>
+          <a:ext cx="295276" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241935</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAB505F-65B1-ED0A-B123-49251602DC63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7785735" y="4752975"/>
+          <a:ext cx="1882140" cy="575310"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69083"/>
+            <a:gd name="adj2" fmla="val -49784"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モード切り替えのボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>451484</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAB505F-65B1-ED0A-B123-49251602DC63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3194684" y="4714874"/>
+          <a:ext cx="1891665" cy="638176"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69083"/>
+            <a:gd name="adj2" fmla="val -49784"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ページ切り替えボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>特定のステージで使用</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4285,32 +4997,32 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4329,67 +5041,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4408,12 +5120,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -4423,12 +5135,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -4438,7 +5150,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -4448,17 +5160,17 @@
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
@@ -4492,7 +5204,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -4507,7 +5219,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -4557,27 +5269,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -4595,12 +5307,12 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
@@ -4615,7 +5327,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -4623,12 +5335,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
@@ -4636,7 +5348,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
@@ -4668,7 +5380,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
@@ -4703,12 +5415,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
@@ -4718,12 +5430,12 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
@@ -4770,42 +5482,42 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -4843,9 +5555,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4856,32 +5568,123 @@
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
   <si>
     <t>【主人公】</t>
     <rPh sb="1" eb="4">
@@ -1317,6 +1317,151 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面の動き</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・主人公操作とオブジェクト操作を切り替えた時</t>
+    <rPh sb="1" eb="4">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面の動き</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　・コストはページ毎に分かれている(ページについては下に記載)</t>
+    <rPh sb="10" eb="11">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ページを切り替えた時</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリックされた時の動き</t>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※モードチェンジのボタンも同じ処理</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　オブジェクト操作モードの時に白枠を入れる</t>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　・主人公操作中はオブジェクトをいじれなく、オブジェクト操作中は主人公をいじれない</t>
+    <rPh sb="3" eb="6">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>シュジンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3689,8 +3834,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="689610"/>
-          <a:ext cx="7901940" cy="4118610"/>
+          <a:off x="220980" y="684007"/>
+          <a:ext cx="7877287" cy="4068184"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -4689,6 +4834,6807 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112208</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>187491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="14887575"/>
+          <a:ext cx="674183" cy="301791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="228600" y="13311468"/>
+          <a:ext cx="7877287" cy="4102474"/>
+          <a:chOff x="228600" y="12992100"/>
+          <a:chExt cx="7901940" cy="4152901"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="18" name="グループ化 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="228600" y="12992100"/>
+            <a:ext cx="7901940" cy="4118610"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3947160"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="正方形/長方形 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="正方形/長方形 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="3977640"/>
+              <a:ext cx="2849880" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="正方形/長方形 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5128260" y="3985260"/>
+              <a:ext cx="2849880" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="正方形/長方形 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3139440" y="1104900"/>
+              <a:ext cx="2042160" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="図 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId2">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="723900" y="3002280"/>
+              <a:ext cx="744122" cy="1082359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="30" name="図 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId4">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="23475"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010400" y="3025140"/>
+              <a:ext cx="869439" cy="1080548"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="238125" y="16859250"/>
+            <a:ext cx="7891714" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="角丸四角形 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2155272" y="16908135"/>
+            <a:ext cx="238871" cy="159123"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="角丸四角形 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2517401" y="16906876"/>
+            <a:ext cx="236623" cy="159123"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="46" name="図 45" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId6">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                        <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
+                        <a14:foregroundMark x1="23944" y1="57746" x2="30986" y2="64789"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7115177" y="16849725"/>
+            <a:ext cx="295276" cy="295276"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>202436</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9191065" y="13311468"/>
+          <a:ext cx="7881097" cy="4069586"/>
+          <a:chOff x="9220200" y="12992100"/>
+          <a:chExt cx="7905750" cy="4118610"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="47" name="グループ化 46"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9220200" y="12992100"/>
+            <a:ext cx="7901940" cy="4118610"/>
+            <a:chOff x="228600" y="12992100"/>
+            <a:chExt cx="7901940" cy="4118610"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="48" name="グループ化 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="228600" y="12992100"/>
+              <a:ext cx="7901940" cy="4118610"/>
+              <a:chOff x="243840" y="586740"/>
+              <a:chExt cx="7734300" cy="3947160"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="53" name="正方形/長方形 52">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="243840" y="586740"/>
+                <a:ext cx="7734300" cy="3939540"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="54" name="正方形/長方形 53">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="243840" y="3977640"/>
+                <a:ext cx="2849880" cy="548640"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="55" name="正方形/長方形 54">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5128260" y="3985260"/>
+                <a:ext cx="2849880" cy="548640"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="57" name="図 56">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+                <a:extLst>
+                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                      <a14:imgLayer r:embed="rId2">
+                        <a14:imgEffect>
+                          <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                        </a14:imgEffect>
+                      </a14:imgLayer>
+                    </a14:imgProps>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="723900" y="3002280"/>
+                <a:ext cx="744122" cy="1082359"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="58" name="図 57">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill rotWithShape="1">
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+                <a:extLst>
+                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                      <a14:imgLayer r:embed="rId4">
+                        <a14:imgEffect>
+                          <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                        </a14:imgEffect>
+                      </a14:imgLayer>
+                    </a14:imgProps>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:srcRect l="23475"/>
+              <a:stretch/>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7010400" y="3025140"/>
+                <a:ext cx="869439" cy="1080548"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="238125" y="16859250"/>
+              <a:ext cx="7891714" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="角丸四角形 49"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2155272" y="16908135"/>
+              <a:ext cx="238871" cy="159123"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="角丸四角形 50"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2517401" y="16906876"/>
+              <a:ext cx="236623" cy="159123"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9239250" y="13011150"/>
+            <a:ext cx="7886700" cy="3848100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:alpha val="30000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>505274</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>143846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12134850" y="13620750"/>
+          <a:ext cx="2086424" cy="572471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14925675" y="14592300"/>
+          <a:ext cx="3248025" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69516"/>
+            <a:gd name="adj2" fmla="val -29345"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>操作出来るオブジェクトが表に出るように</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>後ろにフィルターを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚入れる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パッと表示される</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Unity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の実行時みたいに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14439900" y="13163550"/>
+          <a:ext cx="3248025" cy="683895"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63651"/>
+            <a:gd name="adj2" fmla="val 44471"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>操作出来るオブジェクトはフィルターより</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>前に持って来る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="15840075"/>
+          <a:ext cx="3248025" cy="683895"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41627"/>
+            <a:gd name="adj2" fmla="val 111323"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押してモード切り替え</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モード切り替え後は主人公を操作出来ない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="76" name="グループ化 75"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="266700" y="18036988"/>
+          <a:ext cx="7877287" cy="4102475"/>
+          <a:chOff x="228600" y="12992100"/>
+          <a:chExt cx="7901940" cy="4152901"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="77" name="グループ化 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="228600" y="12992100"/>
+            <a:ext cx="7901940" cy="4118610"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3947160"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="正方形/長方形 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="正方形/長方形 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="3977640"/>
+              <a:ext cx="2849880" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="正方形/長方形 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5128260" y="3985260"/>
+              <a:ext cx="2849880" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="正方形/長方形 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3139440" y="1104900"/>
+              <a:ext cx="2042160" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="86" name="図 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId2">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="723900" y="3002280"/>
+              <a:ext cx="744122" cy="1082359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="87" name="図 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId4">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="23475"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010400" y="3025140"/>
+              <a:ext cx="869439" cy="1080548"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="238125" y="16859250"/>
+            <a:ext cx="7891714" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="角丸四角形 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2517401" y="16906876"/>
+            <a:ext cx="236623" cy="159123"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="81" name="図 80" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId6">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                        <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
+                        <a14:foregroundMark x1="23944" y1="57746" x2="30986" y2="64789"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7115177" y="16849725"/>
+            <a:ext cx="295276" cy="295276"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121733</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>92241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="19792950"/>
+          <a:ext cx="674183" cy="301791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="グループ化 88"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9191065" y="18027463"/>
+          <a:ext cx="7877287" cy="4102475"/>
+          <a:chOff x="228600" y="12992100"/>
+          <a:chExt cx="7901940" cy="4152901"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="90" name="グループ化 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="228600" y="12992100"/>
+            <a:ext cx="7901940" cy="4118610"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3947160"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95" name="正方形/長方形 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="96" name="正方形/長方形 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="3977640"/>
+              <a:ext cx="2849880" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="97" name="正方形/長方形 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5128260" y="3985260"/>
+              <a:ext cx="2849880" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="98" name="正方形/長方形 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3139440" y="1104900"/>
+              <a:ext cx="2042160" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="99" name="図 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId2">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="723900" y="3002280"/>
+              <a:ext cx="744122" cy="1082359"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="100" name="図 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId4">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="23475"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010400" y="3025140"/>
+              <a:ext cx="869439" cy="1080548"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="238125" y="16859250"/>
+            <a:ext cx="7891714" cy="263280"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="角丸四角形 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2155272" y="16908135"/>
+            <a:ext cx="238871" cy="159123"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="94" name="図 93" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId6">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                        <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
+                        <a14:foregroundMark x1="23944" y1="57746" x2="30986" y2="64789"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7115177" y="16849725"/>
+            <a:ext cx="295276" cy="295276"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55144</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>225592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>384540</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>218378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2118120" y="21789263"/>
+          <a:ext cx="329396" cy="229749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>194377</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="102" name="グループ化 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10786782" y="20399382"/>
+          <a:ext cx="2800911" cy="1444760"/>
+          <a:chOff x="243840" y="586740"/>
+          <a:chExt cx="7734300" cy="3939540"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="正方形/長方形 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="586740"/>
+            <a:ext cx="7734300" cy="3939540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="正方形/長方形 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="3977640"/>
+            <a:ext cx="2849880" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="正方形/長方形 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5128260" y="1547952"/>
+            <a:ext cx="2849880" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="正方形/長方形 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3130117" y="2620230"/>
+            <a:ext cx="2042160" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>389164</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>66947</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>234043</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="113" name="グループ化 112"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18161693" y="18016577"/>
+          <a:ext cx="7880489" cy="4102554"/>
+          <a:chOff x="228600" y="12992100"/>
+          <a:chExt cx="7901940" cy="4152901"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="114" name="グループ化 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="228600" y="12992100"/>
+            <a:ext cx="7901940" cy="4118610"/>
+            <a:chOff x="243840" y="586740"/>
+            <a:chExt cx="7734300" cy="3947160"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="119" name="正方形/長方形 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="586740"/>
+              <a:ext cx="7734300" cy="3939540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="120" name="正方形/長方形 119">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="243840" y="3977640"/>
+              <a:ext cx="2849880" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="121" name="正方形/長方形 120">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5128260" y="3985260"/>
+              <a:ext cx="2849880" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="122" name="正方形/長方形 121">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3139440" y="1104900"/>
+              <a:ext cx="2042160" cy="548640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="124" name="図 123">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId4">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="31127" r="92347"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect l="23475"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7010400" y="3025140"/>
+              <a:ext cx="869439" cy="1080548"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="238125" y="16859250"/>
+            <a:ext cx="7891714" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="角丸四角形 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2155272" y="16908135"/>
+            <a:ext cx="238871" cy="159123"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="118" name="図 117" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId6">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                        <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
+                        <a14:foregroundMark x1="23944" y1="57746" x2="30986" y2="64789"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7115177" y="16849725"/>
+            <a:ext cx="295276" cy="295276"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>613682</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>191741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>380320</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>181473</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="126" name="グループ化 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="19069770" y="18782300"/>
+          <a:ext cx="5918668" cy="3048938"/>
+          <a:chOff x="243840" y="586740"/>
+          <a:chExt cx="7734300" cy="3939540"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="正方形/長方形 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="586740"/>
+            <a:ext cx="7734300" cy="3939540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="正方形/長方形 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="3977640"/>
+            <a:ext cx="2849880" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="正方形/長方形 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5128260" y="1547952"/>
+            <a:ext cx="2849880" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="正方形/長方形 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3130117" y="2620230"/>
+            <a:ext cx="2042160" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>235403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>151669</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>44616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17172215" y="20319546"/>
+          <a:ext cx="668740" cy="299070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>298746</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>230415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="図 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18680206" y="20293852"/>
+          <a:ext cx="758187" cy="1115681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>661305</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>111577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="159" name="グループ化 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="27320099" y="17996165"/>
+          <a:ext cx="7867973" cy="4052207"/>
+          <a:chOff x="243840" y="586740"/>
+          <a:chExt cx="7734300" cy="3939540"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="160" name="正方形/長方形 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="586740"/>
+            <a:ext cx="7734300" cy="3939540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="161" name="正方形/長方形 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="243840" y="3977640"/>
+            <a:ext cx="2849880" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="162" name="正方形/長方形 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5128260" y="1547952"/>
+            <a:ext cx="2849880" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="正方形/長方形 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3130117" y="2620230"/>
+            <a:ext cx="2042160" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>172411</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>247039</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>178707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="図 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28067054" y="21068177"/>
+          <a:ext cx="754985" cy="1154101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>383723</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>372105</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>88159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26237294" y="20363089"/>
+          <a:ext cx="668740" cy="299070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>670892</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>311901</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="正方形/長方形 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27314616" y="21671110"/>
+          <a:ext cx="7839078" cy="249528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>505817</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>201392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>62521</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>119913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="角丸四角形 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29378991" y="22059196"/>
+          <a:ext cx="244160" cy="158717"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>672740</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>141395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>278323</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>199772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="図 168" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
+                      <a14:foregroundMark x1="23944" y1="57746" x2="30986" y2="64789"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="34358110" y="21999199"/>
+          <a:ext cx="293039" cy="298573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>10868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="図 169" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
+                      <a14:foregroundMark x1="37333" y1="34667" x2="40667" y2="50000"/>
+                      <a14:foregroundMark x1="39000" y1="27667" x2="50667" y2="46000"/>
+                      <a14:foregroundMark x1="52333" y1="55333" x2="54000" y2="65000"/>
+                      <a14:foregroundMark x1="55333" y1="69667" x2="60333" y2="76667"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7134225" y="17155868"/>
+          <a:ext cx="533400" cy="544757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>125657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="図 170" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
+                      <a14:foregroundMark x1="37333" y1="34667" x2="40667" y2="50000"/>
+                      <a14:foregroundMark x1="39000" y1="27667" x2="50667" y2="46000"/>
+                      <a14:foregroundMark x1="52333" y1="55333" x2="54000" y2="65000"/>
+                      <a14:foregroundMark x1="55333" y1="69667" x2="60333" y2="76667"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2543175" y="21964650"/>
+          <a:ext cx="533400" cy="544757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>100263</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>20052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>339467</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>180904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="角丸四角形 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2160671" y="22158157"/>
+          <a:ext cx="239204" cy="160852"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>507298</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>229480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>147761</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>222266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="正方形/長方形 173"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11526990" y="22232230"/>
+          <a:ext cx="329194" cy="234574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542192</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>91049</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>183630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="角丸四角形 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11561884" y="22266518"/>
+          <a:ext cx="237588" cy="161650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>536606</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>29216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>384206</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>97723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="図 171" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
+                      <a14:foregroundMark x1="37333" y1="34667" x2="40667" y2="50000"/>
+                      <a14:foregroundMark x1="39000" y1="27667" x2="50667" y2="46000"/>
+                      <a14:foregroundMark x1="52333" y1="55333" x2="54000" y2="65000"/>
+                      <a14:foregroundMark x1="55333" y1="69667" x2="60333" y2="76667"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11490356" y="21936716"/>
+          <a:ext cx="532209" cy="544757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>559593</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>200056</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>195192</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="20382799" y="21852171"/>
+          <a:ext cx="324022" cy="228109"/>
+          <a:chOff x="18484453" y="23336250"/>
+          <a:chExt cx="325072" cy="230911"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="176" name="正方形/長方形 175"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18484453" y="23336250"/>
+            <a:ext cx="325072" cy="230911"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="角丸四角形 176"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18519347" y="23366875"/>
+            <a:ext cx="233466" cy="161650"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>125016</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>450088</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>159474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="正方形/長方形 177"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29563219" y="21836063"/>
+          <a:ext cx="325072" cy="230911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>159910</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>197313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>393376</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>120838</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="角丸四角形 178"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29598113" y="21866688"/>
+          <a:ext cx="233466" cy="161650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>271095</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>31774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="271095" y="23394865"/>
+          <a:ext cx="2395905" cy="1057544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>192580</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>80131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>648612</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="角丸四角形 192"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="881311" y="23533612"/>
+          <a:ext cx="1144763" cy="769792"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511848</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>180300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152831</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>184948</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8714554" y="23006682"/>
+          <a:ext cx="2375218" cy="1887237"/>
+          <a:chOff x="6551820" y="25135800"/>
+          <a:chExt cx="2375218" cy="1887236"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6551820" y="25140226"/>
+            <a:ext cx="2375218" cy="1025218"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="正方形/長方形 190"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6966671" y="25135800"/>
+            <a:ext cx="1476100" cy="1022830"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="196" name="角丸四角形 195"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7156864" y="25272507"/>
+            <a:ext cx="1134420" cy="750398"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="192" name="図 191" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId10">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                        <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
+                        <a14:foregroundMark x1="37333" y1="34667" x2="40667" y2="50000"/>
+                        <a14:foregroundMark x1="39000" y1="27667" x2="50667" y2="46000"/>
+                        <a14:foregroundMark x1="52333" y1="55333" x2="54000" y2="65000"/>
+                        <a14:foregroundMark x1="55333" y1="69667" x2="60333" y2="76667"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7399458" y="25590356"/>
+            <a:ext cx="1419141" cy="1432680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>553914</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>194466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>194897</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>150726</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="213" name="グループ化 212"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12857973" y="23020848"/>
+          <a:ext cx="2375218" cy="1838849"/>
+          <a:chOff x="9798768" y="22785525"/>
+          <a:chExt cx="2375218" cy="1838848"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9798768" y="22785525"/>
+            <a:ext cx="2375218" cy="1025218"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10226757" y="22787668"/>
+            <a:ext cx="1476100" cy="1022830"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="199" name="角丸四角形 198"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10403812" y="22917806"/>
+            <a:ext cx="1134420" cy="750398"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="200" name="図 199" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId10">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                        <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
+                        <a14:foregroundMark x1="37333" y1="34667" x2="40667" y2="50000"/>
+                        <a14:foregroundMark x1="39000" y1="27667" x2="50667" y2="46000"/>
+                        <a14:foregroundMark x1="52333" y1="55333" x2="54000" y2="65000"/>
+                        <a14:foregroundMark x1="55333" y1="69667" x2="60333" y2="76667"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="10724847" y="23191693"/>
+            <a:ext cx="1419141" cy="1432680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457306</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>166243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3203158" y="23164283"/>
+          <a:ext cx="671942" cy="298989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>622617</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>116196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>610999</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>179862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11559558" y="23177902"/>
+          <a:ext cx="671941" cy="298989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>588479</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>407504</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>212615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2650849" y="20913587"/>
+          <a:ext cx="3256307" cy="916637"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41293"/>
+            <a:gd name="adj2" fmla="val 95720"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押してモード切り替え</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>切り替えはオブジェクトが操作出来る時しか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出来ない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>143762</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>72177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>641488</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>41696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13750905" y="20401248"/>
+          <a:ext cx="3219154" cy="704305"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63651"/>
+            <a:gd name="adj2" fmla="val 44471"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>押されると同時にページが出て来る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>元ある物の上に重なる形</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>透けたりはしない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>10412</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>183756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>508138</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>153275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22462198" y="18798327"/>
+          <a:ext cx="3219154" cy="704305"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -37021"/>
+            <a:gd name="adj2" fmla="val 88907"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実際にツールバーから呼ぶ時みたいに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>徐々に大きくなりながら出て来る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>割と速め</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>392549</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>167573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33532</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>123833</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="214" name="グループ化 213"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4493902" y="22993955"/>
+          <a:ext cx="2375218" cy="1838849"/>
+          <a:chOff x="3429344" y="22781043"/>
+          <a:chExt cx="2375218" cy="1838848"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="207" name="正方形/長方形 206"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3429344" y="22781043"/>
+            <a:ext cx="2375218" cy="1025218"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="208" name="正方形/長方形 207"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3857333" y="22783186"/>
+            <a:ext cx="1476100" cy="1022830"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="209" name="角丸四角形 208"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4034388" y="22913324"/>
+            <a:ext cx="1134420" cy="750398"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="210" name="図 209" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId10">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                        <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
+                        <a14:foregroundMark x1="37333" y1="34667" x2="40667" y2="50000"/>
+                        <a14:foregroundMark x1="39000" y1="27667" x2="50667" y2="46000"/>
+                        <a14:foregroundMark x1="52333" y1="55333" x2="54000" y2="65000"/>
+                        <a14:foregroundMark x1="55333" y1="69667" x2="60333" y2="76667"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4355423" y="23187211"/>
+            <a:ext cx="1419141" cy="1432680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>606929</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>100509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595311</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>164175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7442517" y="23162215"/>
+          <a:ext cx="671941" cy="298989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>212913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637055</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2185147" y="23980589"/>
+          <a:ext cx="3236820" cy="784411"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38679"/>
+            <a:gd name="adj2" fmla="val -84414"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カーソルを合わせたら少し周りが白くなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>421340</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>240365</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6573369" y="24009724"/>
+          <a:ext cx="3236820" cy="784411"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38679"/>
+            <a:gd name="adj2" fmla="val -84414"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリックされた瞬間は少し濃い色になる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一瞬</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551328</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>24654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>370354</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10804710" y="24027654"/>
+          <a:ext cx="3236820" cy="784411"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38679"/>
+            <a:gd name="adj2" fmla="val -84414"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリック後は選択されてる物の周りに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>白を入れる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択状態が分かるように</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219635</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>208430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="直線コネクタ 216"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9614647" y="23397882"/>
+          <a:ext cx="174812" cy="107577"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>372036</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>69477</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="直線コネクタ 219"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9849971" y="23173765"/>
+          <a:ext cx="91889" cy="192741"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558054</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="直線コネクタ 220"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10127878" y="23117735"/>
+          <a:ext cx="13446" cy="188259"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>335018</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>664414</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>189855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="正方形/長方形 225"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16047984" y="16987345"/>
+          <a:ext cx="329396" cy="229269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>353208</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>647404</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>227484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="227" name="図 226" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
+                      <a14:foregroundMark x1="23944" y1="57746" x2="30986" y2="64789"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16194016" y="17337774"/>
+          <a:ext cx="294196" cy="298479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5112,7 +12058,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5176,6 +12122,11 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5555,9 +12506,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -5616,69 +12567,109 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
   <si>
     <t>【主人公】</t>
     <rPh sb="1" eb="4">
@@ -1462,6 +1462,250 @@
     </rPh>
     <rPh sb="33" eb="36">
       <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>閉じ込められたのが人間案</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　自分が閉じ込められた</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　助けてあげる</t>
+    <rPh sb="1" eb="2">
+      <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウイルスがパソコンの中にいる案</t>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誰かが閉じ込められている案(アンドロイドや動物)</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　一番分かりやすいが、移動方法がクリックなので自分感がない</t>
+    <rPh sb="1" eb="3">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>イドウホウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　操作感的にはしっくり来るが、自分ではなくなる以上助ける理由が必要になりそう(脱出ではなくなるから)</t>
+    <rPh sb="1" eb="4">
+      <t>ソウサカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　プレイヤーにとって助ける対象は何なのか？(愛犬？パートナー？など)</t>
+    <rPh sb="10" eb="11">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アイケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルを正しい位置に運ぶ</t>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　案内対象がパソコンのファイルやデータの案</t>
+    <rPh sb="1" eb="3">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　内容はしっくり来そうだが、キャラクターが難しい(ファイルから手を生やす？)</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　移動方法はクリックよりドラッグの方がしっくり来そう</t>
+    <rPh sb="1" eb="5">
+      <t>イドウホウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ウイルスに侵略されないようにゴミ箱まで運ぶ</t>
+    <rPh sb="6" eb="8">
+      <t>シンリャク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ウイルスがゴールにたどり着いてしまうと感染してゲームオーバー</t>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ウイルスを上手く案内して感染を阻止する</t>
+    <rPh sb="6" eb="8">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ウイルスが画面外(下)に出たり、ブルスク(コストオーバー)になってもゲームオーバー</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -8987,11 +9231,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId6">
+                <a14:imgLayer r:embed="rId8">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
@@ -9060,11 +9304,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId8">
+                <a14:imgLayer r:embed="rId10">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -9136,11 +9380,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId8">
+                <a14:imgLayer r:embed="rId10">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -9396,11 +9640,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId8">
+                <a14:imgLayer r:embed="rId10">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -9989,11 +10233,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId10">
+                  <a14:imgLayer r:embed="rId12">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -10216,11 +10460,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId10">
+                  <a14:imgLayer r:embed="rId12">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -10929,11 +11173,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId10">
+                  <a14:imgLayer r:embed="rId12">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -11979,7 +12223,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -11995,58 +12239,138 @@
         <v>42</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>54</v>
       </c>
     </row>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654DBEF-5082-407D-9E52-AA5B9C220EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -1713,7 +1714,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1860,7 +1861,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68332A6-4F41-8E21-CFED-49AA21CDE7AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1904,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D168B8A-BB34-8A52-5A80-2CEB4231DA5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1947,7 @@
         <xdr:cNvPr id="3" name="図 2" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0B0D3B-1290-4C75-B277-5D52081A0EAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2023,7 @@
         <xdr:cNvPr id="5" name="図 4" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE77FCC-8932-2007-67DD-AE46BA1A4276}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2099,7 @@
         <xdr:cNvPr id="7" name="矢印: 右 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D735A3-7424-EFE1-9A49-43E57198EBDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2170,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8E53C8-0B8C-3C02-32FE-D8E393DA275D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2281,7 @@
         <xdr:cNvPr id="12" name="グループ化 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CB290E-53C6-358B-B52E-5E58839D0268}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,8 +2289,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20954" y="5099685"/>
-          <a:ext cx="3116581" cy="1905000"/>
+          <a:off x="20954" y="4899660"/>
+          <a:ext cx="3055621" cy="1828800"/>
           <a:chOff x="68579" y="3489960"/>
           <a:chExt cx="3055621" cy="1828800"/>
         </a:xfrm>
@@ -2299,7 +2300,7 @@
           <xdr:cNvPr id="2" name="図 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE316DA-D09E-A0B7-0966-299A8CC5EEFB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2327,7 +2328,7 @@
           <xdr:cNvPr id="7" name="図 6" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2404,7 +2405,7 @@
         <xdr:cNvPr id="15" name="グループ化 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A41782-1D1A-A3E9-AE25-A0C376C32CA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,8 +2413,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="12281535"/>
-          <a:ext cx="7208520" cy="2244090"/>
+          <a:off x="104775" y="11795760"/>
+          <a:ext cx="7056120" cy="2148840"/>
           <a:chOff x="152400" y="6766560"/>
           <a:chExt cx="7056120" cy="2209800"/>
         </a:xfrm>
@@ -2423,7 +2424,7 @@
           <xdr:cNvPr id="11" name="グループ化 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5D4467-1D14-6E7B-1F2A-1621F244CEA8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2442,7 +2443,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BB404E-F6D0-82AF-0B5C-EEFDBB64F94B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2470,7 +2471,7 @@
             <xdr:cNvPr id="6" name="図 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EA5D44-8F10-80C9-3B8D-6E49B25992A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2498,7 +2499,7 @@
             <xdr:cNvPr id="8" name="図 7" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB44B512-5005-C323-5421-6E2A2AF78321}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2559,7 +2560,7 @@
             <xdr:cNvPr id="10" name="図 9" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31854BD6-2D09-40FF-B3D1-FF01C1351971}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2621,7 +2622,7 @@
           <xdr:cNvPr id="13" name="矢印: 右 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F920C273-4E2F-329A-268B-1628529F11C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2672,7 +2673,7 @@
           <xdr:cNvPr id="14" name="矢印: 右 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2739,7 +2740,7 @@
         <xdr:cNvPr id="16" name="吹き出し: 角を丸めた四角形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C3748E-8F36-4D03-8332-587313A3EF4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,20 +2832,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="グループ化 42"/>
+        <xdr:cNvPr id="43" name="グループ化 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="47625" y="16510636"/>
-          <a:ext cx="9934575" cy="1922463"/>
+          <a:off x="47625" y="15853411"/>
+          <a:ext cx="9721215" cy="1846263"/>
           <a:chOff x="47625" y="13862686"/>
           <a:chExt cx="9934575" cy="1922463"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="26" name="グループ化 25"/>
+          <xdr:cNvPr id="26" name="グループ化 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2860,7 +2873,7 @@
             <xdr:cNvPr id="17" name="グループ化 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CB290E-53C6-358B-B52E-5E58839D0268}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2879,7 +2892,7 @@
               <xdr:cNvPr id="18" name="図 17">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE316DA-D09E-A0B7-0966-299A8CC5EEFB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2907,7 +2920,7 @@
               <xdr:cNvPr id="19" name="図 18" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2966,7 +2979,13 @@
         </xdr:grpSp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="25" name="グループ化 24"/>
+            <xdr:cNvPr id="25" name="グループ化 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -2979,7 +2998,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+              <xdr:cNvPr id="3" name="正方形/長方形 2">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3028,7 +3053,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+              <xdr:cNvPr id="9" name="テキスト ボックス 8">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3072,7 +3103,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+              <xdr:cNvPr id="20" name="テキスト ボックス 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3117,7 +3154,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+              <xdr:cNvPr id="21" name="テキスト ボックス 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr txBox="1"/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -3162,7 +3205,13 @@
           </xdr:sp>
           <xdr:cxnSp macro="">
             <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="23" name="直線コネクタ 22"/>
+              <xdr:cNvPr id="23" name="直線コネクタ 22">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvCxnSpPr/>
             </xdr:nvCxnSpPr>
             <xdr:spPr>
@@ -3198,7 +3247,13 @@
           </xdr:cxnSp>
           <xdr:cxnSp macro="">
             <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+              <xdr:cNvPr id="24" name="直線コネクタ 23">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvCxnSpPr/>
             </xdr:nvCxnSpPr>
             <xdr:spPr>
@@ -3236,7 +3291,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="41" name="グループ化 40"/>
+          <xdr:cNvPr id="41" name="グループ化 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3249,7 +3310,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="27" name="グループ化 26"/>
+            <xdr:cNvPr id="27" name="グループ化 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -3265,7 +3332,7 @@
               <xdr:cNvPr id="36" name="図 35">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE316DA-D09E-A0B7-0966-299A8CC5EEFB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3290,7 +3357,13 @@
           </xdr:pic>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="29" name="グループ化 28"/>
+              <xdr:cNvPr id="29" name="グループ化 28">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -3303,7 +3376,13 @@
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+                <xdr:cNvPr id="30" name="正方形/長方形 29">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -3352,7 +3431,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+                <xdr:cNvPr id="32" name="テキスト ボックス 31">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -3397,7 +3482,13 @@
             </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+                <xdr:cNvPr id="33" name="テキスト ボックス 32">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvSpPr txBox="1"/>
               </xdr:nvSpPr>
               <xdr:spPr>
@@ -3442,7 +3533,13 @@
             </xdr:sp>
             <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
-                <xdr:cNvPr id="34" name="直線コネクタ 33"/>
+                <xdr:cNvPr id="34" name="直線コネクタ 33">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvCxnSpPr/>
               </xdr:nvCxnSpPr>
               <xdr:spPr>
@@ -3478,7 +3575,13 @@
             </xdr:cxnSp>
             <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
-                <xdr:cNvPr id="35" name="直線コネクタ 34"/>
+                <xdr:cNvPr id="35" name="直線コネクタ 34">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
                 <xdr:cNvCxnSpPr/>
               </xdr:nvCxnSpPr>
               <xdr:spPr>
@@ -3516,7 +3619,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+            <xdr:cNvPr id="40" name="正方形/長方形 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3574,7 +3683,7 @@
           <xdr:cNvPr id="38" name="矢印: 右 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3625,7 +3734,7 @@
           <xdr:cNvPr id="39" name="図 38" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3699,20 +3808,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="グループ化 56"/>
+        <xdr:cNvPr id="57" name="グループ化 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="49529" y="7528561"/>
-          <a:ext cx="6684424" cy="2505076"/>
+          <a:off x="49529" y="7233286"/>
+          <a:ext cx="6547264" cy="2400301"/>
           <a:chOff x="49529" y="7157086"/>
           <a:chExt cx="6684424" cy="2505076"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="56" name="グループ化 55"/>
+          <xdr:cNvPr id="56" name="グループ化 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -3728,7 +3849,7 @@
             <xdr:cNvPr id="44" name="グループ化 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CB290E-53C6-358B-B52E-5E58839D0268}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3747,7 +3868,7 @@
               <xdr:cNvPr id="45" name="図 44">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE316DA-D09E-A0B7-0966-299A8CC5EEFB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3775,7 +3896,7 @@
               <xdr:cNvPr id="46" name="図 45" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3837,7 +3958,7 @@
             <xdr:cNvPr id="47" name="矢印: 右 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3888,7 +4009,7 @@
             <xdr:cNvPr id="48" name="グループ化 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CB290E-53C6-358B-B52E-5E58839D0268}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3907,7 +4028,7 @@
               <xdr:cNvPr id="49" name="図 48">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE316DA-D09E-A0B7-0966-299A8CC5EEFB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3935,7 +4056,7 @@
               <xdr:cNvPr id="50" name="図 49" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3998,7 +4119,7 @@
           <xdr:cNvPr id="51" name="矢印: 右 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F920C273-4E2F-329A-268B-1628529F11C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4070,7 +4191,7 @@
         <xdr:cNvPr id="9" name="グループ化 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,8 +4199,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="684007"/>
-          <a:ext cx="7877287" cy="4068184"/>
+          <a:off x="220980" y="679525"/>
+          <a:ext cx="7754022" cy="4027842"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -4089,7 +4210,7 @@
           <xdr:cNvPr id="2" name="正方形/長方形 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4142,7 +4263,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4193,7 +4314,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4244,7 +4365,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4298,7 +4419,7 @@
           <xdr:cNvPr id="6" name="図 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4339,7 +4460,7 @@
           <xdr:cNvPr id="7" name="図 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4395,7 +4516,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4495,7 +4616,7 @@
         <xdr:cNvPr id="10" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAB505F-65B1-ED0A-B123-49251602DC63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4579,7 +4700,7 @@
         <xdr:cNvPr id="11" name="吹き出し: 角を丸めた四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED17CA3C-F893-2006-FB3B-257200B3855E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4660,7 +4781,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4720,7 +4847,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4780,7 +4913,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4842,7 +4981,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+        <xdr:cNvPr id="22" name="図 21" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4912,7 +5057,7 @@
         <xdr:cNvPr id="23" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAB505F-65B1-ED0A-B123-49251602DC63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4996,7 +5141,7 @@
         <xdr:cNvPr id="24" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAB505F-65B1-ED0A-B123-49251602DC63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5096,7 +5241,7 @@
         <xdr:cNvPr id="31" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5159,13 +5304,19 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="13311468"/>
-          <a:ext cx="7877287" cy="4102474"/>
+          <a:off x="228600" y="13185962"/>
+          <a:ext cx="7754022" cy="4062133"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -5175,7 +5326,7 @@
           <xdr:cNvPr id="18" name="グループ化 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5194,7 +5345,7 @@
             <xdr:cNvPr id="25" name="正方形/長方形 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5247,7 +5398,7 @@
             <xdr:cNvPr id="26" name="正方形/長方形 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5298,7 +5449,7 @@
             <xdr:cNvPr id="27" name="正方形/長方形 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5349,7 +5500,7 @@
             <xdr:cNvPr id="28" name="正方形/長方形 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5403,7 +5554,7 @@
             <xdr:cNvPr id="29" name="図 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5444,7 +5595,7 @@
             <xdr:cNvPr id="30" name="図 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5482,7 +5633,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5527,7 +5684,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="角丸四角形 43"/>
+          <xdr:cNvPr id="44" name="角丸四角形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5572,7 +5735,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="角丸四角形 44"/>
+          <xdr:cNvPr id="45" name="角丸四角形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5619,17 +5788,23 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="46" name="図 45" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+          <xdr:cNvPr id="46" name="図 45" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId6">
+                  <a14:imgLayer r:embed="rId8">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
@@ -5687,20 +5862,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9191065" y="13311468"/>
-          <a:ext cx="7881097" cy="4069586"/>
+          <a:off x="9045388" y="13185962"/>
+          <a:ext cx="7757833" cy="4031486"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="47" name="グループ化 46"/>
+          <xdr:cNvPr id="47" name="グループ化 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5716,7 +5903,7 @@
             <xdr:cNvPr id="48" name="グループ化 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5735,7 +5922,7 @@
               <xdr:cNvPr id="53" name="正方形/長方形 52">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5788,7 +5975,7 @@
               <xdr:cNvPr id="54" name="正方形/長方形 53">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5839,7 +6026,7 @@
               <xdr:cNvPr id="55" name="正方形/長方形 54">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5890,7 +6077,7 @@
               <xdr:cNvPr id="57" name="図 56">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5931,7 +6118,7 @@
               <xdr:cNvPr id="58" name="図 57">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5969,7 +6156,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+            <xdr:cNvPr id="49" name="正方形/長方形 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6014,7 +6207,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="角丸四角形 49"/>
+            <xdr:cNvPr id="50" name="角丸四角形 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6059,7 +6258,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="角丸四角形 50"/>
+            <xdr:cNvPr id="51" name="角丸四角形 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6107,7 +6312,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6173,7 +6384,7 @@
         <xdr:cNvPr id="72" name="正方形/長方形 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6249,7 +6460,7 @@
         <xdr:cNvPr id="73" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6400,7 +6611,7 @@
         <xdr:cNvPr id="74" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6500,7 +6711,7 @@
         <xdr:cNvPr id="75" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6597,13 +6808,19 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="76" name="グループ化 75"/>
+        <xdr:cNvPr id="76" name="グループ化 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="18036988"/>
-          <a:ext cx="7877287" cy="4102475"/>
+          <a:off x="266700" y="17866659"/>
+          <a:ext cx="7754022" cy="4062133"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -6613,7 +6830,7 @@
           <xdr:cNvPr id="77" name="グループ化 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6632,7 +6849,7 @@
             <xdr:cNvPr id="82" name="正方形/長方形 81">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6685,7 +6902,7 @@
             <xdr:cNvPr id="83" name="正方形/長方形 82">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6736,7 +6953,7 @@
             <xdr:cNvPr id="84" name="正方形/長方形 83">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6787,7 +7004,7 @@
             <xdr:cNvPr id="85" name="正方形/長方形 84">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6841,7 +7058,7 @@
             <xdr:cNvPr id="86" name="図 85">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6882,7 +7099,7 @@
             <xdr:cNvPr id="87" name="図 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6920,7 +7137,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+          <xdr:cNvPr id="78" name="正方形/長方形 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6965,7 +7188,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="角丸四角形 79"/>
+          <xdr:cNvPr id="80" name="角丸四角形 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7012,17 +7241,23 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="81" name="図 80" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+          <xdr:cNvPr id="81" name="図 80" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId6">
+                  <a14:imgLayer r:embed="rId8">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
@@ -7083,7 +7318,7 @@
         <xdr:cNvPr id="88" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7146,13 +7381,19 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="89" name="グループ化 88"/>
+        <xdr:cNvPr id="89" name="グループ化 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9191065" y="18027463"/>
-          <a:ext cx="7877287" cy="4102475"/>
+          <a:off x="9045388" y="17857134"/>
+          <a:ext cx="7754023" cy="4062133"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -7162,7 +7403,7 @@
           <xdr:cNvPr id="90" name="グループ化 89">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7181,7 +7422,7 @@
             <xdr:cNvPr id="95" name="正方形/長方形 94">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7234,7 +7475,7 @@
             <xdr:cNvPr id="96" name="正方形/長方形 95">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000060000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7285,7 +7526,7 @@
             <xdr:cNvPr id="97" name="正方形/長方形 96">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000061000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7336,7 +7577,7 @@
             <xdr:cNvPr id="98" name="正方形/長方形 97">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000062000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7390,7 +7631,7 @@
             <xdr:cNvPr id="99" name="図 98">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000063000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7431,7 +7672,7 @@
             <xdr:cNvPr id="100" name="図 99">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000064000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7469,7 +7710,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+          <xdr:cNvPr id="91" name="正方形/長方形 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7514,7 +7761,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="角丸四角形 91"/>
+          <xdr:cNvPr id="92" name="角丸四角形 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7559,17 +7812,23 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="94" name="図 93" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+          <xdr:cNvPr id="94" name="図 93" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId6">
+                  <a14:imgLayer r:embed="rId8">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
@@ -7627,7 +7886,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7692,7 +7957,7 @@
         <xdr:cNvPr id="102" name="グループ化 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7700,8 +7965,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10786782" y="20399382"/>
-          <a:ext cx="2800911" cy="1444760"/>
+          <a:off x="10618694" y="20206640"/>
+          <a:ext cx="2756087" cy="1431313"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -7711,7 +7976,7 @@
           <xdr:cNvPr id="107" name="正方形/長方形 106">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7764,7 +8029,7 @@
           <xdr:cNvPr id="108" name="正方形/長方形 107">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7815,7 +8080,7 @@
           <xdr:cNvPr id="109" name="正方形/長方形 108">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7866,7 +8131,7 @@
           <xdr:cNvPr id="110" name="正方形/長方形 109">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7933,13 +8198,19 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="113" name="グループ化 112"/>
+        <xdr:cNvPr id="113" name="グループ化 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18161693" y="18016577"/>
-          <a:ext cx="7880489" cy="4102554"/>
+          <a:off x="17870340" y="17846248"/>
+          <a:ext cx="7746019" cy="4056834"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -7949,7 +8220,7 @@
           <xdr:cNvPr id="114" name="グループ化 113">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000072000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7968,7 +8239,7 @@
             <xdr:cNvPr id="119" name="正方形/長方形 118">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000077000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8021,7 +8292,7 @@
             <xdr:cNvPr id="120" name="正方形/長方形 119">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000078000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8072,7 +8343,7 @@
             <xdr:cNvPr id="121" name="正方形/長方形 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000079000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8123,7 +8394,7 @@
             <xdr:cNvPr id="122" name="正方形/長方形 121">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8177,7 +8448,7 @@
             <xdr:cNvPr id="124" name="図 123">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED67A15-A530-4ED2-BFEF-04480FEE6A4F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8215,7 +8486,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+          <xdr:cNvPr id="115" name="正方形/長方形 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000073000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8260,7 +8537,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="角丸四角形 115"/>
+          <xdr:cNvPr id="116" name="角丸四角形 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000074000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8305,17 +8588,23 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="118" name="図 117" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+          <xdr:cNvPr id="118" name="図 117" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000076000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId6">
+                  <a14:imgLayer r:embed="rId8">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
@@ -8376,7 +8665,7 @@
         <xdr:cNvPr id="126" name="グループ化 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8384,8 +8673,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19069770" y="18782300"/>
-          <a:ext cx="5918668" cy="3048938"/>
+          <a:off x="18767211" y="18605247"/>
+          <a:ext cx="5817815" cy="3019802"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -8395,7 +8684,7 @@
           <xdr:cNvPr id="131" name="正方形/長方形 130">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000083000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8448,7 +8737,7 @@
           <xdr:cNvPr id="132" name="正方形/長方形 131">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8499,7 +8788,7 @@
           <xdr:cNvPr id="133" name="正方形/長方形 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000085000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8550,7 +8839,7 @@
           <xdr:cNvPr id="134" name="正方形/長方形 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000086000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8620,7 +8909,7 @@
         <xdr:cNvPr id="135" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8686,7 +8975,7 @@
         <xdr:cNvPr id="136" name="図 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8742,7 +9031,7 @@
         <xdr:cNvPr id="159" name="グループ化 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E591D4-AC01-59FA-D2CB-F9EA7FB19EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8750,8 +9039,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27320099" y="17996165"/>
-          <a:ext cx="7867973" cy="4052207"/>
+          <a:off x="26883070" y="17825836"/>
+          <a:ext cx="7733502" cy="4014107"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -8761,7 +9050,7 @@
           <xdr:cNvPr id="160" name="正方形/長方形 159">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCB80F0-9031-C9AA-72E6-847D90E772CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8814,7 +9103,7 @@
           <xdr:cNvPr id="161" name="正方形/長方形 160">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809A39B2-A5A2-1114-68CA-9A250E439494}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8865,7 +9154,7 @@
           <xdr:cNvPr id="162" name="正方形/長方形 161">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BE72AD-E533-3DF6-0412-BCA2C6A12C0A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8916,7 +9205,7 @@
           <xdr:cNvPr id="163" name="正方形/長方形 162">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5AB11-A211-C0FB-BB43-28E2D8A1790C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8986,7 +9275,7 @@
         <xdr:cNvPr id="164" name="図 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E72C91-C3A1-16AF-B0C0-FF1E8F4838F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9042,7 +9331,7 @@
         <xdr:cNvPr id="165" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9105,7 +9394,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="正方形/長方形 165"/>
+        <xdr:cNvPr id="166" name="正方形/長方形 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9165,7 +9460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="角丸四角形 166"/>
+        <xdr:cNvPr id="167" name="角丸四角形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9225,17 +9526,23 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="169" name="図 168" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+        <xdr:cNvPr id="169" name="図 168" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId8">
+                <a14:imgLayer r:embed="rId10">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
@@ -9295,7 +9602,7 @@
         <xdr:cNvPr id="170" name="図 169" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9304,11 +9611,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId10">
+                <a14:imgLayer r:embed="rId12">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -9371,7 +9678,7 @@
         <xdr:cNvPr id="171" name="図 170" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9380,11 +9687,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId10">
+                <a14:imgLayer r:embed="rId12">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -9444,7 +9751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="角丸四角形 172"/>
+        <xdr:cNvPr id="173" name="角丸四角形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9504,7 +9817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="正方形/長方形 173"/>
+        <xdr:cNvPr id="174" name="正方形/長方形 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9566,7 +9885,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="角丸四角形 174"/>
+        <xdr:cNvPr id="175" name="角丸四角形 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9631,7 +9956,7 @@
         <xdr:cNvPr id="172" name="図 171" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9640,11 +9965,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId10">
+                <a14:imgLayer r:embed="rId12">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -9704,20 +10029,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20382799" y="21852171"/>
-          <a:ext cx="324022" cy="228109"/>
+          <a:off x="20057828" y="21645982"/>
+          <a:ext cx="312816" cy="225869"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="176" name="正方形/長方形 175"/>
+          <xdr:cNvPr id="176" name="正方形/長方形 175">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9764,7 +10101,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="177" name="角丸四角形 176"/>
+          <xdr:cNvPr id="177" name="角丸四角形 176">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9827,7 +10170,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="正方形/長方形 177"/>
+        <xdr:cNvPr id="178" name="正方形/長方形 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9889,7 +10238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="角丸四角形 178"/>
+        <xdr:cNvPr id="179" name="角丸四角形 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9951,7 +10306,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+        <xdr:cNvPr id="194" name="正方形/長方形 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10011,7 +10372,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="角丸四角形 192"/>
+        <xdr:cNvPr id="193" name="角丸四角形 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10071,20 +10438,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8714554" y="23006682"/>
-          <a:ext cx="2375218" cy="1887237"/>
+          <a:off x="8580083" y="22789288"/>
+          <a:ext cx="2330395" cy="1869307"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+          <xdr:cNvPr id="195" name="正方形/長方形 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10129,7 +10508,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="191" name="正方形/長方形 190"/>
+          <xdr:cNvPr id="191" name="正方形/長方形 190">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10176,7 +10561,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="196" name="角丸四角形 195"/>
+          <xdr:cNvPr id="196" name="角丸四角形 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10224,7 +10615,7 @@
           <xdr:cNvPr id="192" name="図 191" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10233,11 +10624,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId12">
+                  <a14:imgLayer r:embed="rId14">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -10298,20 +10689,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="213" name="グループ化 212"/>
+        <xdr:cNvPr id="213" name="グループ化 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12857973" y="23020848"/>
-          <a:ext cx="2375218" cy="1838849"/>
+          <a:off x="12656267" y="22803454"/>
+          <a:ext cx="2330395" cy="1820919"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+          <xdr:cNvPr id="197" name="正方形/長方形 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10356,7 +10759,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+          <xdr:cNvPr id="198" name="正方形/長方形 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10403,7 +10812,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="199" name="角丸四角形 198"/>
+          <xdr:cNvPr id="199" name="角丸四角形 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10451,7 +10866,7 @@
           <xdr:cNvPr id="200" name="図 199" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10460,11 +10875,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId12">
+                  <a14:imgLayer r:embed="rId14">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -10528,7 +10943,7 @@
         <xdr:cNvPr id="201" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10594,7 +11009,7 @@
         <xdr:cNvPr id="202" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10660,7 +11075,7 @@
         <xdr:cNvPr id="203" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10776,7 +11191,7 @@
         <xdr:cNvPr id="204" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10895,7 +11310,7 @@
         <xdr:cNvPr id="205" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11011,20 +11426,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="214" name="グループ化 213"/>
+        <xdr:cNvPr id="214" name="グループ化 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4493902" y="22993955"/>
-          <a:ext cx="2375218" cy="1838849"/>
+          <a:off x="4426667" y="22776561"/>
+          <a:ext cx="2330394" cy="1820919"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="207" name="正方形/長方形 206"/>
+          <xdr:cNvPr id="207" name="正方形/長方形 206">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11069,7 +11496,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="208" name="正方形/長方形 207"/>
+          <xdr:cNvPr id="208" name="正方形/長方形 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11116,7 +11549,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="209" name="角丸四角形 208"/>
+          <xdr:cNvPr id="209" name="角丸四角形 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11164,7 +11603,7 @@
           <xdr:cNvPr id="210" name="図 209" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614D03DE-AEF8-0D7D-AF09-5E49A49408DB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11173,11 +11612,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId12">
+                  <a14:imgLayer r:embed="rId14">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -11241,7 +11680,7 @@
         <xdr:cNvPr id="211" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957BDB1-56D0-B714-B5F0-357B13C032DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11307,7 +11746,7 @@
         <xdr:cNvPr id="206" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11391,7 +11830,7 @@
         <xdr:cNvPr id="212" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11502,7 +11941,7 @@
         <xdr:cNvPr id="215" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAAD80-C051-4C69-B7C9-5269EC60C2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11618,7 +12057,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name="直線コネクタ 216"/>
+        <xdr:cNvPr id="217" name="直線コネクタ 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11667,7 +12112,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="220" name="直線コネクタ 219"/>
+        <xdr:cNvPr id="220" name="直線コネクタ 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11716,7 +12167,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="221" name="直線コネクタ 220"/>
+        <xdr:cNvPr id="221" name="直線コネクタ 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11765,7 +12222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="226" name="正方形/長方形 225"/>
+        <xdr:cNvPr id="226" name="正方形/長方形 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11827,7 +12290,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="227" name="図 226" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト"/>
+        <xdr:cNvPr id="227" name="図 226" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12178,39 +12647,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -12222,154 +12691,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -12381,74 +12850,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -12460,59 +12929,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -12525,297 +12994,297 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -12829,169 +13298,169 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>108</v>
       </c>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654DBEF-5082-407D-9E52-AA5B9C220EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE821B11-CFEE-4944-8B64-FC8F3329AF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
   <si>
     <t>【主人公】</t>
     <rPh sb="1" eb="4">
@@ -1707,6 +1707,16 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・クリックされた時の動き</t>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -12650,7 +12660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -12851,7 +12861,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -12920,6 +12930,11 @@
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -12932,7 +12947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -13301,7 +13316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE821B11-CFEE-4944-8B64-FC8F3329AF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t>【主人公】</t>
     <rPh sb="1" eb="4">
@@ -1720,12 +1719,222 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>主人公の種類</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・通常</t>
+    <rPh sb="1" eb="3">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ジャンプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・移動速度変化</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・合体</t>
+    <rPh sb="1" eb="3">
+      <t>ガッタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ジャンプも移動速度も同じ</t>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・移動中はジャンプしている(タイミングゲーになりそう)</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・他の主人公より移動速度が速い(こいつを優先第一で考えないといけない)</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・どこかで合流しないといけない(道を繋げる必要がある)</t>
+    <rPh sb="6" eb="8">
+      <t>ゴウリュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・1つのゴールにつき、主人公1人まで</t>
+    <rPh sb="12" eb="15">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・特定の行動をしないと動かない</t>
+    <rPh sb="1" eb="3">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・1回目の指示には反応しない</t>
+    <rPh sb="3" eb="5">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・モード切り替えを特定回しないといけない</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・特定の条件で数が増える</t>
+    <rPh sb="1" eb="3">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・増える前にクリアするか、増えた上で攻略方法を見つける(瞬時に考える能力が必要)</t>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>コウリャクホウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュンジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1774,6 +1983,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1809,7 +2027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1832,6 +2050,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2299,8 +2523,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20954" y="4899660"/>
-          <a:ext cx="3055621" cy="1828800"/>
+          <a:off x="20954" y="5099685"/>
+          <a:ext cx="3116581" cy="1905000"/>
           <a:chOff x="68579" y="3489960"/>
           <a:chExt cx="3055621" cy="1828800"/>
         </a:xfrm>
@@ -2423,8 +2647,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="11795760"/>
-          <a:ext cx="7056120" cy="2148840"/>
+          <a:off x="104775" y="12281535"/>
+          <a:ext cx="7208520" cy="2244090"/>
           <a:chOff x="152400" y="6766560"/>
           <a:chExt cx="7056120" cy="2209800"/>
         </a:xfrm>
@@ -2853,8 +3077,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="47625" y="15853411"/>
-          <a:ext cx="9721215" cy="1846263"/>
+          <a:off x="47625" y="16510636"/>
+          <a:ext cx="9934575" cy="1922463"/>
           <a:chOff x="47625" y="13862686"/>
           <a:chExt cx="9934575" cy="1922463"/>
         </a:xfrm>
@@ -3829,8 +4053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="49529" y="7233286"/>
-          <a:ext cx="6547264" cy="2400301"/>
+          <a:off x="49529" y="7528561"/>
+          <a:ext cx="6684424" cy="2505076"/>
           <a:chOff x="49529" y="7157086"/>
           <a:chExt cx="6684424" cy="2505076"/>
         </a:xfrm>
@@ -4209,8 +4433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="679525"/>
-          <a:ext cx="7754022" cy="4027842"/>
+          <a:off x="220980" y="684007"/>
+          <a:ext cx="7877287" cy="4068184"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -5237,13 +5461,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>112208</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>187491</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5303,13 +5527,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5325,8 +5549,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="13185962"/>
-          <a:ext cx="7754022" cy="4062133"/>
+          <a:off x="228600" y="13546791"/>
+          <a:ext cx="7877287" cy="4102475"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -5861,13 +6085,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>202436</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5883,8 +6107,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9045388" y="13185962"/>
-          <a:ext cx="7757833" cy="4031486"/>
+          <a:off x="9191065" y="13546791"/>
+          <a:ext cx="7881097" cy="4069586"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -6380,13 +6604,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>505274</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>143846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6456,13 +6680,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6607,13 +6831,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6707,13 +6931,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6807,13 +7031,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6829,8 +7053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="17866659"/>
-          <a:ext cx="7754022" cy="4062133"/>
+          <a:off x="266700" y="18272312"/>
+          <a:ext cx="7877287" cy="4102474"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -7314,13 +7538,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>121733</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>92241</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7380,13 +7604,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7402,8 +7626,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9045388" y="17857134"/>
-          <a:ext cx="7754023" cy="4062133"/>
+          <a:off x="9191065" y="18262787"/>
+          <a:ext cx="7877287" cy="4102474"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -7885,13 +8109,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>55144</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>225592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>384540</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>218378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7953,13 +8177,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>161558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>194377</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7975,8 +8199,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10618694" y="20206640"/>
-          <a:ext cx="2756087" cy="1431313"/>
+          <a:off x="10786782" y="20634705"/>
+          <a:ext cx="2800911" cy="1444760"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -8197,13 +8421,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>389164</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>131989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>66947</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>234043</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8219,8 +8443,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17870340" y="17846248"/>
-          <a:ext cx="7746019" cy="4056834"/>
+          <a:off x="18161693" y="18251901"/>
+          <a:ext cx="7880489" cy="4102554"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -8661,13 +8885,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>613682</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>191741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>380320</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>181473</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8683,8 +8907,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18767211" y="18605247"/>
-          <a:ext cx="5817815" cy="3019802"/>
+          <a:off x="19069770" y="19017623"/>
+          <a:ext cx="5918668" cy="3048938"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -8905,13 +9129,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>235403</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>151669</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>44616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8971,13 +9195,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>56028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>298746</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>230415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9027,13 +9251,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>661305</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>111577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9049,8 +9273,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26883070" y="17825836"/>
-          <a:ext cx="7733502" cy="4014107"/>
+          <a:off x="27320099" y="18231489"/>
+          <a:ext cx="7867973" cy="4052207"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -9271,13 +9495,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>172411</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>247039</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>178707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9327,13 +9551,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>383723</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>372105</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>88159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9393,13 +9617,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>670892</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>151179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>311901</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>164224</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9459,13 +9683,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>505817</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>201392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>62521</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>119913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9525,13 +9749,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>672740</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>141395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>278323</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>199772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9598,13 +9822,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>10868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9674,13 +9898,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>125657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9750,13 +9974,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>100263</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>20052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>339467</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180904</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9816,13 +10040,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>507298</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>229480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>147761</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>222266</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9884,13 +10108,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>542192</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>21980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>91049</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>183630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9952,13 +10176,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>536606</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>29216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>384206</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>97723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10028,13 +10252,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>559593</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>202406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>200056</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>195192</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10050,8 +10274,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20057828" y="21645982"/>
-          <a:ext cx="312816" cy="225869"/>
+          <a:off x="20382799" y="22087494"/>
+          <a:ext cx="324022" cy="228110"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -10169,13 +10393,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>125016</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>450088</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>159474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10237,13 +10461,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>159910</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>197313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>393376</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>120838</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10305,13 +10529,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>271095</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>183173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>31774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10371,13 +10595,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>192580</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>80131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>648612</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>124558</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10437,13 +10661,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>511848</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>152831</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>184948</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10459,8 +10683,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8580083" y="22789288"/>
-          <a:ext cx="2330395" cy="1869307"/>
+          <a:off x="8714554" y="23242006"/>
+          <a:ext cx="2375218" cy="1887236"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -10688,13 +10912,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>553914</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>194466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>194897</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>150726</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10710,8 +10934,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12656267" y="22803454"/>
-          <a:ext cx="2330395" cy="1820919"/>
+          <a:off x="12857973" y="23256172"/>
+          <a:ext cx="2375218" cy="1838848"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -10939,13 +11163,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>468923</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457306</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>166243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11005,13 +11229,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>622617</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>116196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>610999</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>179862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11071,13 +11295,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>588479</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>407504</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>212615</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11187,13 +11411,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>143762</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>72177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>641488</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>41696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11306,13 +11530,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>10412</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>183756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>508138</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>153275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11425,13 +11649,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>392549</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>167573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>33532</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>123833</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11447,8 +11671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4426667" y="22776561"/>
-          <a:ext cx="2330394" cy="1820919"/>
+          <a:off x="4493902" y="23229279"/>
+          <a:ext cx="2375218" cy="1838848"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -11676,13 +11900,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>606929</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>100509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>595311</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>164175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11742,13 +11966,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>212913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>637055</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11826,13 +12050,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>421340</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>6724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>240365</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11937,13 +12161,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>551328</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>24654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>370354</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>103094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12056,13 +12280,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219635</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>208430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12111,13 +12335,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>372036</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>69477</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12166,13 +12390,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>558054</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12221,13 +12445,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>335018</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>197069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>664414</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>189855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12289,13 +12513,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>353208</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>170793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>647404</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>227484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12657,39 +12881,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -12701,154 +12925,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -12860,79 +13084,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -12944,362 +13168,457 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -13313,170 +13632,175 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
     </row>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="主人公" sheetId="1" r:id="rId4"/>
     <sheet name="マウス操作" sheetId="3" r:id="rId5"/>
     <sheet name="ステージ" sheetId="4" r:id="rId6"/>
+    <sheet name="シーン" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
   <si>
     <t>【主人公】</t>
     <rPh sb="1" eb="4">
@@ -1926,6 +1927,245 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【シーン】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ステージが読み込まれた後、初期位置に出現する(リトライ時も)</t>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ショキイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　小さい状態から大きい状態になるフェード方法(速め、ポンッぐらい)</t>
+    <rPh sb="1" eb="2">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリア画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウイルスの出現演出/処理演出/感染演出</t>
+    <rPh sb="5" eb="7">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームオーバー画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ゴミ箱に触れたらゴミ箱の中に入る演出を入れる</t>
+    <rPh sb="3" eb="4">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　間にエフェクトを入れて急に切り替わらないようにする</t>
+    <rPh sb="1" eb="2">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　ファイルに触れた場合は感染してゲームオーバーになる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　ファイルが感染した演出終了後ブルスクを出す</t>
+    <rPh sb="7" eb="9">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シーンシート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ステージ選択画面</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ選択画面</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・タイトル画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ステージ画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ウイルスの出現演出/処理演出/感染演出</t>
+    <rPh sb="6" eb="8">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・クリア画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ゲームオーバー画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5026,8 +5266,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228599" y="4600575"/>
-          <a:ext cx="7902743" cy="250157"/>
+          <a:off x="228599" y="4499722"/>
+          <a:ext cx="7867061" cy="244849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5092,7 +5332,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2155271" y="4592310"/>
+          <a:off x="2148547" y="4539082"/>
           <a:ext cx="238871" cy="159123"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5158,8 +5398,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2517400" y="4591051"/>
-          <a:ext cx="236623" cy="159123"/>
+          <a:off x="2510676" y="4537823"/>
+          <a:ext cx="234382" cy="159123"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -12585,6 +12825,6617 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>192880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="Windows 10 自動ログイン（起動時のパスワード入力を省略）する方法 - PC設定のカルマ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="669130"/>
+          <a:ext cx="4314825" cy="3236119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>93300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991099" y="676275"/>
+          <a:ext cx="5381625" cy="3227025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 結合子 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="1295400"/>
+          <a:ext cx="752474" cy="752474"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="2219325"/>
+          <a:ext cx="1962150" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="2705100"/>
+          <a:ext cx="1524000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="2619375"/>
+          <a:ext cx="2628900" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66784"/>
+            <a:gd name="adj2" fmla="val -26605"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>何か入力出来る？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログインボタンを押してスタート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>79296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="2698671"/>
+          <a:ext cx="295275" cy="273129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>389659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>212148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>611332</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>213882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8598477" y="2831523"/>
+          <a:ext cx="221673" cy="1734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>244471</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17" descr="パソコン（PC）の壁紙（背景）を変更する方法｜ドスパラ通販【公式】"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="244471" y="4752378"/>
+          <a:ext cx="5622928" cy="3162897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>112350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="4743450"/>
+          <a:ext cx="5381625" cy="3227025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>111499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381751" y="7724775"/>
+          <a:ext cx="5372100" cy="244849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="5314950"/>
+          <a:ext cx="2628900" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67146"/>
+            <a:gd name="adj2" fmla="val -1049"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>デスクトップ画面でステージ選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が出来る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ダブルクリック？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7448550" y="5362574"/>
+          <a:ext cx="695325" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7477125" y="6429374"/>
+          <a:ext cx="695325" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8610600" y="6400799"/>
+          <a:ext cx="695325" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8582025" y="5362574"/>
+          <a:ext cx="695325" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9744075" y="5353049"/>
+          <a:ext cx="695325" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9801225" y="6410324"/>
+          <a:ext cx="695325" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="5972175"/>
+          <a:ext cx="1143000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="5972175"/>
+          <a:ext cx="1143000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="5972175"/>
+          <a:ext cx="1143000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="7058025"/>
+          <a:ext cx="1143000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="7048500"/>
+          <a:ext cx="1143000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="7038975"/>
+          <a:ext cx="1143000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38" descr="スピーカーのシルエット | 無料のAi・PNG白黒シルエットイラスト"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="78667" y1="48000" x2="77000" y2="55000"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10572750" y="7724773"/>
+          <a:ext cx="257175" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11439525" y="6934200"/>
+          <a:ext cx="2628900" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69682"/>
+            <a:gd name="adj2" fmla="val 46729"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ツールバーでゲームの設定を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>いじれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>213121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>378713</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="8785621"/>
+          <a:ext cx="5579363" cy="3138392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450130</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>235325</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="グループ化 63"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6381750" y="9410700"/>
+          <a:ext cx="5726980" cy="2969000"/>
+          <a:chOff x="6391275" y="8886825"/>
+          <a:chExt cx="5726980" cy="2969000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="63" name="グループ化 62"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6391275" y="8886825"/>
+            <a:ext cx="5726980" cy="2969000"/>
+            <a:chOff x="6391275" y="8886825"/>
+            <a:chExt cx="5726980" cy="2969000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="53" name="グループ化 52"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="6391275" y="8886825"/>
+              <a:ext cx="5726980" cy="2969000"/>
+              <a:chOff x="209550" y="8829675"/>
+              <a:chExt cx="5726980" cy="2969000"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="51" name="グループ化 50"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="209550" y="8829675"/>
+                <a:ext cx="5726980" cy="2947050"/>
+                <a:chOff x="209550" y="8829675"/>
+                <a:chExt cx="5726980" cy="2947050"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="41" name="グループ化 40">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="209550" y="8829675"/>
+                  <a:ext cx="5726980" cy="2947050"/>
+                  <a:chOff x="243840" y="586740"/>
+                  <a:chExt cx="7747185" cy="3939540"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="42" name="正方形/長方形 41">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="243840" y="586740"/>
+                    <a:ext cx="7734300" cy="3939540"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="43" name="正方形/長方形 42">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="256725" y="3773916"/>
+                    <a:ext cx="2849880" cy="548640"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="44" name="正方形/長方形 43">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5141145" y="3781535"/>
+                    <a:ext cx="2849880" cy="548640"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="45" name="正方形/長方形 44">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3139440" y="1626944"/>
+                    <a:ext cx="2042159" cy="548640"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="48" name="正方形/長方形 47">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="219076" y="11525250"/>
+                  <a:ext cx="5705474" cy="244849"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="49" name="角丸四角形 48">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1796123" y="11564610"/>
+                  <a:ext cx="238871" cy="159123"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="50" name="角丸四角形 49">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2158252" y="11563351"/>
+                  <a:ext cx="234382" cy="159123"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="52" name="図 51" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+                <a:extLst>
+                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                      <a14:imgLayer r:embed="rId8">
+                        <a14:imgEffect>
+                          <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                            <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
+                            <a14:foregroundMark x1="23944" y1="57746" x2="30986" y2="64789"/>
+                          </a14:backgroundRemoval>
+                        </a14:imgEffect>
+                      </a14:imgLayer>
+                    </a14:imgProps>
+                  </a:ext>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4886325" y="11506200"/>
+                <a:ext cx="295276" cy="292475"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="正方形/長方形 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6400800" y="8905875"/>
+              <a:ext cx="5705474" cy="244849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="57" name="図 56" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6457950" y="8896349"/>
+              <a:ext cx="247650" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="59" name="図 58" descr="回転・更新の矢印のシルエット | 無料のAi・PNG白黒シルエットイラスト"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId11">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6715125" y="8905875"/>
+              <a:ext cx="228600" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="60" name="図 59" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId13">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="4511" b="89850" l="9774" r="89850">
+                        <a14:foregroundMark x1="37594" y1="45865" x2="39474" y2="50000"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11363325" y="10810876"/>
+            <a:ext cx="390524" cy="390524"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="61" name="図 60" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId15">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6743700" y="10420351"/>
+            <a:ext cx="990600" cy="990600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7372350" y="8667750"/>
+          <a:ext cx="2628900" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63160"/>
+            <a:gd name="adj2" fmla="val 45618"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>上のタブでリトライや、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ選択画面に戻れる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>223842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="右矢印 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12996863" y="4086230"/>
+          <a:ext cx="2795586" cy="433387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="3600449"/>
+          <a:ext cx="4857750" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タイトルからステージ選択に行くときは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フェードやロード演出など、ワンクッション入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="12477750"/>
+          <a:ext cx="2628900" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38522"/>
+            <a:gd name="adj2" fmla="val -71049"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージを開いたタイミングで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ページの数だけ追加される</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>209555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="右矢印 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12977813" y="8534404"/>
+          <a:ext cx="2795586" cy="433387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14392275" y="8039099"/>
+          <a:ext cx="4857750" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージを選択したらロード演出などを入れてから</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グルグル回る演出が表示されるなど</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="75" name="グループ化 74"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="419099" y="13039724"/>
+          <a:ext cx="5257801" cy="2800351"/>
+          <a:chOff x="723899" y="13554074"/>
+          <a:chExt cx="5257801" cy="2800351"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="70" name="図 69" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId15">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3181349" y="13554074"/>
+            <a:ext cx="2800351" cy="2800351"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="71" name="図 70" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId17">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="723899" y="14963775"/>
+            <a:ext cx="276225" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="72" name="図 71" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId15">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1914525" y="14458950"/>
+            <a:ext cx="1200150" cy="1200150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="矢印: 右 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1295399" y="14982825"/>
+            <a:ext cx="650535" cy="289465"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="矢印: 右 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3038474" y="15001875"/>
+            <a:ext cx="650535" cy="289465"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>526330</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>178175</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="グループ化 77"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="16973550"/>
+          <a:ext cx="5726980" cy="2969000"/>
+          <a:chOff x="6391275" y="8886825"/>
+          <a:chExt cx="5726980" cy="2969000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="79" name="グループ化 78"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6391275" y="8886825"/>
+            <a:ext cx="5726980" cy="2969000"/>
+            <a:chOff x="6391275" y="8886825"/>
+            <a:chExt cx="5726980" cy="2969000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="82" name="グループ化 81"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="6391275" y="8886825"/>
+              <a:ext cx="5726980" cy="2969000"/>
+              <a:chOff x="209550" y="8829675"/>
+              <a:chExt cx="5726980" cy="2969000"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="86" name="グループ化 85"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="209550" y="8829675"/>
+                <a:ext cx="5726980" cy="2947050"/>
+                <a:chOff x="209550" y="8829675"/>
+                <a:chExt cx="5726980" cy="2947050"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="88" name="グループ化 87">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="209550" y="8829675"/>
+                  <a:ext cx="5726980" cy="2947050"/>
+                  <a:chOff x="243840" y="586740"/>
+                  <a:chExt cx="7747185" cy="3939540"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="92" name="正方形/長方形 91">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="243840" y="586740"/>
+                    <a:ext cx="7734300" cy="3939540"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="93" name="正方形/長方形 92">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="256725" y="3773916"/>
+                    <a:ext cx="2849880" cy="548640"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="94" name="正方形/長方形 93">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="5141145" y="3781535"/>
+                    <a:ext cx="2849880" cy="548640"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="95" name="正方形/長方形 94">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3126555" y="3771382"/>
+                    <a:ext cx="1974917" cy="530575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="89" name="正方形/長方形 88">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="219076" y="11525250"/>
+                  <a:ext cx="5705474" cy="244849"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="90" name="角丸四角形 89">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1796123" y="11564610"/>
+                  <a:ext cx="238871" cy="159123"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="91" name="角丸四角形 90">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2158252" y="11563351"/>
+                  <a:ext cx="234382" cy="159123"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="87" name="図 86" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+                <a:extLst>
+                  <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                    <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                      <a14:imgLayer r:embed="rId8">
+                        <a14:imgEffect>
+                          <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                            <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
+                            <a14:foregroundMark x1="23944" y1="57746" x2="30986" y2="64789"/>
+                          </a14:backgroundRemoval>
+                        </a14:imgEffect>
+                      </a14:imgLayer>
+                    </a14:imgProps>
+                  </a:ext>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4886325" y="11506200"/>
+                <a:ext cx="295276" cy="292475"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="正方形/長方形 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6400800" y="8905875"/>
+              <a:ext cx="5705474" cy="244849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="84" name="図 83" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6457950" y="8896349"/>
+              <a:ext cx="247650" cy="247650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="85" name="図 84" descr="回転・更新の矢印のシルエット | 無料のAi・PNG白黒シルエットイラスト"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+              <a:extLst>
+                <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                  <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a14:imgLayer r:embed="rId11">
+                      <a14:imgEffect>
+                        <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                      </a14:imgEffect>
+                    </a14:imgLayer>
+                  </a14:imgProps>
+                </a:ext>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6715125" y="8905875"/>
+              <a:ext cx="228600" cy="228600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="81" name="図 80" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId15">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11153775" y="10363199"/>
+            <a:ext cx="800101" cy="800101"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="80" name="図 79" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId13">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="4511" b="89850" l="9774" r="89850">
+                        <a14:foregroundMark x1="37594" y1="45865" x2="39474" y2="50000"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11363325" y="10810876"/>
+            <a:ext cx="390524" cy="390524"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95" descr="ASCII.jp：Windows 10で「変更を加えることを許可しますか？」って出るのが邪魔"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="16606836"/>
+          <a:ext cx="4933950" cy="3700463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="正方形/長方形 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="16992599"/>
+          <a:ext cx="5676900" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="17687925"/>
+          <a:ext cx="2333625" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線コネクタ 105"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="17868900"/>
+          <a:ext cx="2314575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255814</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9171214" y="18815957"/>
+          <a:ext cx="495300" cy="136071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>次へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8528957" y="18815957"/>
+          <a:ext cx="571500" cy="136071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>332015</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>234044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7875815" y="18113829"/>
+          <a:ext cx="1398814" cy="321129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>クリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>212272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="テキスト ボックス 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353301" y="18413186"/>
+          <a:ext cx="2465614" cy="321129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ウイルスを処理できました</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>659217</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>87084</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="図 112" descr="ファイル:Multiplication Sign.svg - Wikipedia"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9574617" y="17825357"/>
+          <a:ext cx="113667" cy="114301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="17116425"/>
+          <a:ext cx="2628900" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65696"/>
+            <a:gd name="adj2" fmla="val 41174"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ダイアログボックス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>演出後即表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コメントや評価を表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="18640425"/>
+          <a:ext cx="2628900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65334"/>
+            <a:gd name="adj2" fmla="val -21809"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>背景にフィルターを入れて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画面を見やすくする♪</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168352</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="図 116" descr="https://itojisan.xyz/wp-content/uploads/2019/07/925eaf1a908d7313e66f9f1909df076a-380x246.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="21202650"/>
+          <a:ext cx="4664152" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>93300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="21155025"/>
+          <a:ext cx="5381625" cy="3227025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>138794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="テキスト ボックス 118"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="21488400"/>
+          <a:ext cx="2400300" cy="319769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ウイルスに感染しました。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>214994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="テキスト ボックス 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829299" y="21802725"/>
+          <a:ext cx="3324225" cy="319769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージを再起動する必要があります。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>126709</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="22355175"/>
+          <a:ext cx="1050634" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リトライ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>62594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="テキスト ボックス 122"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324724" y="23079075"/>
+          <a:ext cx="3324225" cy="319769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ヒント：○○○○</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="21364575"/>
+          <a:ext cx="2762250" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68233"/>
+            <a:gd name="adj2" fmla="val -21809"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コストオーバーしたり、ゴミ箱以外</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に触れた場合ブルスクを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115675" y="23002875"/>
+          <a:ext cx="2762250" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68233"/>
+            <a:gd name="adj2" fmla="val -21809"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻略のヒントや</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>何か情報をここに表示しても良い</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="図 127" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId13">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
+                      <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7477125" y="13963649"/>
+          <a:ext cx="1400175" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="図 128" descr="すみっコぐらしofficial web site プロフィール"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId15">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="21089" t="33674" r="23810" b="17347"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6019799" y="14001750"/>
+          <a:ext cx="1543051" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21885</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>79915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="14554200"/>
+          <a:ext cx="650535" cy="289465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="図 130" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId13">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
+                      <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9763125" y="14011274"/>
+          <a:ext cx="1400175" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>202860</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>70390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11210925" y="14544675"/>
+          <a:ext cx="650535" cy="289465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>37797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="135" name="グループ化 134"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11963400" y="13849047"/>
+          <a:ext cx="1400175" cy="1638602"/>
+          <a:chOff x="12134850" y="14182422"/>
+          <a:chExt cx="1400175" cy="1638602"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="132" name="図 131" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId13">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
+                        <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="12134850" y="14420849"/>
+            <a:ext cx="1400175" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="133" name="図 132" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId15">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="21089" t="33674" r="23810" b="38053"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="12275525" y="14182422"/>
+            <a:ext cx="1085851" cy="557149"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="図 136" descr="爆発の煙イラストのフリー素材｜イラストイメージ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId23">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9667874" y="13801724"/>
+          <a:ext cx="1466851" cy="1466851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="bg1">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>663428</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="図 137" descr="フラットなフォルダのイラスト | SOZAIC.com"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId25">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15554325" y="13954124"/>
+          <a:ext cx="2254103" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>479085</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>79915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17659350" y="14554200"/>
+          <a:ext cx="650535" cy="289465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>641010</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>41815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20564475" y="14516100"/>
+          <a:ext cx="650535" cy="289465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="図 140" descr="すみっコぐらしofficial web site プロフィール"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId15">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="21089" t="33674" r="23810" b="17347"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14392274" y="14068425"/>
+          <a:ext cx="1543051" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>615803</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="図 141" descr="フラットなフォルダのイラスト | SOZAIC.com"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId25">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18249900" y="13935074"/>
+          <a:ext cx="2254103" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="図 142" descr="爆発の煙イラストのフリー素材｜イラストイメージ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId23">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18611849" y="13877924"/>
+          <a:ext cx="1466851" cy="1466851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="bg1">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>644378</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="146" name="グループ化 145"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="21021675" y="13706475"/>
+          <a:ext cx="2254103" cy="1885949"/>
+          <a:chOff x="21002625" y="13639800"/>
+          <a:chExt cx="2254103" cy="1885949"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="144" name="図 143" descr="フラットなフォルダのイラスト | SOZAIC.com"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId25">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="21002625" y="14011274"/>
+            <a:ext cx="2254103" cy="1514475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="145" name="図 144" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId15">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="21089" t="33674" r="23810" b="40476"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="21326474" y="13639800"/>
+            <a:ext cx="1543051" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="図 147" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22479000" y="14325599"/>
+          <a:ext cx="619125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="図 148" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21269325" y="14782800"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -12884,7 +19735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -13085,7 +19936,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -13161,6 +20012,41 @@
         <v>126</v>
       </c>
     </row>
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13171,7 +20057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -13810,4 +20696,77 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="J66" t="s">
+        <v>149</v>
+      </c>
+      <c r="V66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="J67" t="s">
+        <v>150</v>
+      </c>
+      <c r="V67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -13061,7 +13061,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>タイトル</a:t>
+            <a:t>タイトルロゴ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -24017,7 +24017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -24294,7 +24294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ステージ" sheetId="4" r:id="rId7"/>
     <sheet name="シーン" sheetId="7" r:id="rId8"/>
     <sheet name="シーン移動" sheetId="8" r:id="rId9"/>
+    <sheet name="タスク" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -2573,6 +2574,476 @@
   </si>
   <si>
     <t>【ウイルス・ミス】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウイルス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マウス操作</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリア判定</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー表示(綺麗に)</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リトライボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ選択に戻るボタン</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページ切り替えボタン(動き)</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルースクリーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マウス置き換え(おとりファイル)</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクトや演出</t>
+    <rPh sb="6" eb="8">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モード切り替え(演出含む)</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>感染判定(フォルダに感染)</t>
+    <rPh sb="0" eb="2">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>落下判定(ブルスク)</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コスト計算</t>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウイルスとマウスの動きが確認出来る</t>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～23日</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5ステージほど遊べる</t>
+    <rPh sb="7" eb="8">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～28日</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>細かい演出以外は出来てる(ウイルス複数個や、ページ切り替えの遊びなど)</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>フクスウコ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～16日</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イラストなどの置き換え(仕様は全て入れ終わっている)</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～30日</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最終チェック(バグ0、資料完成)</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～26日</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動画完成(資料準備)</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ウイルスの移動、ジャンプ</t>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・コピペ、サイズ変更、移動、選択</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・遊びが確認出来る</t>
+    <rPh sb="2" eb="3">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・感染、落下、クリア判定</t>
+    <rPh sb="2" eb="4">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・リトライやステージ選択の仮シーン作成</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・モード切り替えやメニュー表示の見栄え調整</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミバ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・コスト計算</t>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・UIや背景の調整</t>
+    <rPh sb="5" eb="7">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ダイアログボックスやブルスクの見た目調整</t>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コピペの動作の調整(出現位置など)</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～21日</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・動画の構成やテロップを決める</t>
+    <rPh sb="2" eb="4">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・メンバー、作品紹介、操作方法資料</t>
+    <rPh sb="7" eb="11">
+      <t>サクヒンショウカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動や待機アニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表情変化</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リザルト(ダイアログボックス)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージUI</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2674,12 +3145,186 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2688,7 +3333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2724,6 +3369,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24017,7 +24698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -24064,6 +24745,317 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24294,7 +25286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3370,40 +3370,40 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -24698,7 +24698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -24752,165 +24752,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
       <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="14"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="14"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
@@ -25028,30 +25026,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25869,7 +25867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3370,6 +3370,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3379,20 +3385,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3400,11 +3400,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24698,7 +24698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -24758,157 +24758,157 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
@@ -25026,19 +25026,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B4:E4"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -25050,6 +25037,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25867,7 +25867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C01A719-468A-4AFB-A94F-577A2D9AEA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3050,7 +3051,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3333,7 +3334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3358,9 +3359,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3370,29 +3368,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3400,11 +3401,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3443,7 +3441,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3484,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,7 +3527,7 @@
         <xdr:cNvPr id="3" name="図 2" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3605,7 +3603,7 @@
         <xdr:cNvPr id="5" name="図 4" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3681,7 +3679,7 @@
         <xdr:cNvPr id="7" name="矢印: 右 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3749,7 +3747,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3818,7 +3822,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3929,7 +3933,7 @@
         <xdr:cNvPr id="12" name="グループ化 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3937,8 +3941,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20954" y="5099685"/>
-          <a:ext cx="3116581" cy="1905000"/>
+          <a:off x="20954" y="4899660"/>
+          <a:ext cx="3055621" cy="1828800"/>
           <a:chOff x="68579" y="3489960"/>
           <a:chExt cx="3055621" cy="1828800"/>
         </a:xfrm>
@@ -3948,7 +3952,7 @@
           <xdr:cNvPr id="2" name="図 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3976,7 +3980,7 @@
           <xdr:cNvPr id="7" name="図 6" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4053,7 +4057,7 @@
         <xdr:cNvPr id="15" name="グループ化 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,8 +4065,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="12281535"/>
-          <a:ext cx="7208520" cy="2244090"/>
+          <a:off x="104775" y="11795760"/>
+          <a:ext cx="7056120" cy="2148840"/>
           <a:chOff x="152400" y="6766560"/>
           <a:chExt cx="7056120" cy="2209800"/>
         </a:xfrm>
@@ -4072,7 +4076,7 @@
           <xdr:cNvPr id="11" name="グループ化 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4091,7 +4095,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4119,7 +4123,7 @@
             <xdr:cNvPr id="6" name="図 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4147,7 +4151,7 @@
             <xdr:cNvPr id="8" name="図 7" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4208,7 +4212,7 @@
             <xdr:cNvPr id="10" name="図 9" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4270,7 +4274,7 @@
           <xdr:cNvPr id="13" name="矢印: 右 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4321,7 +4325,7 @@
           <xdr:cNvPr id="14" name="矢印: 右 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4388,7 +4392,7 @@
         <xdr:cNvPr id="16" name="吹き出し: 角を丸めた四角形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,7 +4503,7 @@
         <xdr:cNvPr id="43" name="グループ化 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4507,8 +4511,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="47625" y="16510636"/>
-          <a:ext cx="9934575" cy="1922463"/>
+          <a:off x="47625" y="15853411"/>
+          <a:ext cx="9721215" cy="1846263"/>
           <a:chOff x="47625" y="13862686"/>
           <a:chExt cx="9934575" cy="1922463"/>
         </a:xfrm>
@@ -4518,7 +4522,7 @@
           <xdr:cNvPr id="26" name="グループ化 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4537,7 +4541,7 @@
             <xdr:cNvPr id="17" name="グループ化 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4556,7 +4560,7 @@
               <xdr:cNvPr id="18" name="図 17">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4584,7 +4588,7 @@
               <xdr:cNvPr id="19" name="図 18" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4646,7 +4650,7 @@
             <xdr:cNvPr id="25" name="グループ化 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4665,7 +4669,7 @@
               <xdr:cNvPr id="3" name="正方形/長方形 2">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4720,7 +4724,7 @@
               <xdr:cNvPr id="9" name="テキスト ボックス 8">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4770,7 +4774,7 @@
               <xdr:cNvPr id="20" name="テキスト ボックス 19">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4821,7 +4825,7 @@
               <xdr:cNvPr id="21" name="テキスト ボックス 20">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4872,7 +4876,7 @@
               <xdr:cNvPr id="23" name="直線コネクタ 22">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4914,7 +4918,7 @@
               <xdr:cNvPr id="24" name="直線コネクタ 23">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4958,7 +4962,7 @@
           <xdr:cNvPr id="41" name="グループ化 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4977,7 +4981,7 @@
             <xdr:cNvPr id="27" name="グループ化 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4996,7 +5000,7 @@
               <xdr:cNvPr id="36" name="図 35">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5024,7 +5028,7 @@
               <xdr:cNvPr id="29" name="グループ化 28">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5043,7 +5047,7 @@
                 <xdr:cNvPr id="30" name="正方形/長方形 29">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -5098,7 +5102,7 @@
                 <xdr:cNvPr id="32" name="テキスト ボックス 31">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -5149,7 +5153,7 @@
                 <xdr:cNvPr id="33" name="テキスト ボックス 32">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -5200,7 +5204,7 @@
                 <xdr:cNvPr id="34" name="直線コネクタ 33">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -5242,7 +5246,7 @@
                 <xdr:cNvPr id="35" name="直線コネクタ 34">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -5286,7 +5290,7 @@
             <xdr:cNvPr id="40" name="正方形/長方形 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5347,7 +5351,7 @@
           <xdr:cNvPr id="38" name="矢印: 右 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5398,7 +5402,7 @@
           <xdr:cNvPr id="39" name="図 38" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5475,7 +5479,7 @@
         <xdr:cNvPr id="57" name="グループ化 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5483,8 +5487,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="49529" y="7528561"/>
-          <a:ext cx="6684424" cy="2505076"/>
+          <a:off x="49529" y="7233286"/>
+          <a:ext cx="6547264" cy="2400301"/>
           <a:chOff x="49529" y="7157086"/>
           <a:chExt cx="6684424" cy="2505076"/>
         </a:xfrm>
@@ -5494,7 +5498,7 @@
           <xdr:cNvPr id="56" name="グループ化 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5513,7 +5517,7 @@
             <xdr:cNvPr id="44" name="グループ化 43">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5532,7 +5536,7 @@
               <xdr:cNvPr id="45" name="図 44">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5560,7 +5564,7 @@
               <xdr:cNvPr id="46" name="図 45" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5622,7 +5626,7 @@
             <xdr:cNvPr id="47" name="矢印: 右 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5673,7 +5677,7 @@
             <xdr:cNvPr id="48" name="グループ化 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5692,7 +5696,7 @@
               <xdr:cNvPr id="49" name="図 48">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5720,7 +5724,7 @@
               <xdr:cNvPr id="50" name="図 49" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5783,7 +5787,7 @@
           <xdr:cNvPr id="51" name="矢印: 右 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5847,7 +5851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5910,7 +5920,7 @@
         <xdr:cNvPr id="59" name="図 58" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5986,7 +5996,7 @@
         <xdr:cNvPr id="60" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6081,7 +6091,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6147,7 +6163,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6213,7 +6235,7 @@
         <xdr:cNvPr id="63" name="図 62" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6289,7 +6311,7 @@
         <xdr:cNvPr id="64" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6414,7 @@
         <xdr:cNvPr id="9" name="グループ化 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6400,8 +6422,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="689610"/>
-          <a:ext cx="7901940" cy="4118610"/>
+          <a:off x="220980" y="670560"/>
+          <a:ext cx="7734300" cy="3947160"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -6411,7 +6433,7 @@
           <xdr:cNvPr id="2" name="正方形/長方形 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6464,7 +6486,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6515,7 +6537,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6566,7 +6588,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6636,7 +6658,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6736,7 +6758,7 @@
         <xdr:cNvPr id="10" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6820,7 +6842,7 @@
         <xdr:cNvPr id="11" name="吹き出し: 角を丸めた四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6904,7 +6926,7 @@
         <xdr:cNvPr id="19" name="正方形/長方形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6970,7 +6992,7 @@
         <xdr:cNvPr id="20" name="角丸四角形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7036,7 +7058,7 @@
         <xdr:cNvPr id="21" name="角丸四角形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7104,7 +7126,7 @@
         <xdr:cNvPr id="22" name="図 21" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7177,7 +7199,7 @@
         <xdr:cNvPr id="23" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7261,7 +7283,7 @@
         <xdr:cNvPr id="24" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7361,7 +7383,7 @@
         <xdr:cNvPr id="31" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7427,7 +7449,7 @@
         <xdr:cNvPr id="12" name="グループ化 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7435,8 +7457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="18945225"/>
-          <a:ext cx="7901940" cy="4152901"/>
+          <a:off x="228600" y="18192750"/>
+          <a:ext cx="7734300" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -7446,7 +7468,7 @@
           <xdr:cNvPr id="18" name="グループ化 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7465,7 +7487,7 @@
             <xdr:cNvPr id="25" name="正方形/長方形 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7518,7 +7540,7 @@
             <xdr:cNvPr id="26" name="正方形/長方形 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7569,7 +7591,7 @@
             <xdr:cNvPr id="27" name="正方形/長方形 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7620,7 +7642,7 @@
             <xdr:cNvPr id="28" name="正方形/長方形 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7674,7 +7696,7 @@
             <xdr:cNvPr id="29" name="図 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7715,7 +7737,7 @@
             <xdr:cNvPr id="30" name="図 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7756,7 +7778,7 @@
           <xdr:cNvPr id="43" name="正方形/長方形 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7807,7 +7829,7 @@
           <xdr:cNvPr id="44" name="角丸四角形 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7858,7 +7880,7 @@
           <xdr:cNvPr id="45" name="角丸四角形 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7911,7 +7933,7 @@
           <xdr:cNvPr id="46" name="図 45" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7985,7 +8007,7 @@
         <xdr:cNvPr id="14" name="グループ化 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7993,8 +8015,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9220200" y="18945225"/>
-          <a:ext cx="7905750" cy="4117211"/>
+          <a:off x="9022080" y="18192750"/>
+          <a:ext cx="7738110" cy="3955286"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -8004,7 +8026,7 @@
           <xdr:cNvPr id="47" name="グループ化 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8023,7 +8045,7 @@
             <xdr:cNvPr id="48" name="グループ化 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8042,7 +8064,7 @@
               <xdr:cNvPr id="53" name="正方形/長方形 52">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8095,7 +8117,7 @@
               <xdr:cNvPr id="54" name="正方形/長方形 53">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8146,7 +8168,7 @@
               <xdr:cNvPr id="55" name="正方形/長方形 54">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8197,7 +8219,7 @@
               <xdr:cNvPr id="57" name="図 56">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8238,7 +8260,7 @@
               <xdr:cNvPr id="58" name="図 57">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -8279,7 +8301,7 @@
             <xdr:cNvPr id="49" name="正方形/長方形 48">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8330,7 +8352,7 @@
             <xdr:cNvPr id="50" name="角丸四角形 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8381,7 +8403,7 @@
             <xdr:cNvPr id="51" name="角丸四角形 50">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8435,7 +8457,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8504,7 +8526,7 @@
         <xdr:cNvPr id="72" name="正方形/長方形 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8580,7 +8602,7 @@
         <xdr:cNvPr id="73" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8731,7 +8753,7 @@
         <xdr:cNvPr id="74" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8831,7 +8853,7 @@
         <xdr:cNvPr id="75" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8931,7 +8953,7 @@
         <xdr:cNvPr id="76" name="グループ化 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8939,8 +8961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="23726775"/>
-          <a:ext cx="7901940" cy="4152901"/>
+          <a:off x="266700" y="22783800"/>
+          <a:ext cx="7734300" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -8950,7 +8972,7 @@
           <xdr:cNvPr id="77" name="グループ化 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8969,7 +8991,7 @@
             <xdr:cNvPr id="82" name="正方形/長方形 81">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9022,7 +9044,7 @@
             <xdr:cNvPr id="83" name="正方形/長方形 82">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000053000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9073,7 +9095,7 @@
             <xdr:cNvPr id="84" name="正方形/長方形 83">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000054000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000054000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9124,7 +9146,7 @@
             <xdr:cNvPr id="85" name="正方形/長方形 84">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000055000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9178,7 +9200,7 @@
             <xdr:cNvPr id="86" name="図 85">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000056000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000056000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9219,7 +9241,7 @@
             <xdr:cNvPr id="87" name="図 86">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000057000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9260,7 +9282,7 @@
           <xdr:cNvPr id="78" name="正方形/長方形 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9311,7 +9333,7 @@
           <xdr:cNvPr id="80" name="角丸四角形 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9364,7 +9386,7 @@
           <xdr:cNvPr id="81" name="図 80" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9438,7 +9460,7 @@
         <xdr:cNvPr id="88" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9504,7 +9526,7 @@
         <xdr:cNvPr id="89" name="グループ化 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9512,8 +9534,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9220200" y="23717250"/>
-          <a:ext cx="7901940" cy="4152901"/>
+          <a:off x="9022080" y="22774275"/>
+          <a:ext cx="7734300" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -9523,7 +9545,7 @@
           <xdr:cNvPr id="90" name="グループ化 89">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9542,7 +9564,7 @@
             <xdr:cNvPr id="95" name="正方形/長方形 94">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9595,7 +9617,7 @@
             <xdr:cNvPr id="96" name="正方形/長方形 95">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000060000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000060000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9646,7 +9668,7 @@
             <xdr:cNvPr id="97" name="正方形/長方形 96">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000061000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000061000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9697,7 +9719,7 @@
             <xdr:cNvPr id="98" name="正方形/長方形 97">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000062000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000062000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9751,7 +9773,7 @@
             <xdr:cNvPr id="99" name="図 98">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000063000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000063000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9792,7 +9814,7 @@
             <xdr:cNvPr id="100" name="図 99">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000064000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000064000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9833,7 +9855,7 @@
           <xdr:cNvPr id="91" name="正方形/長方形 90">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9884,7 +9906,7 @@
           <xdr:cNvPr id="92" name="角丸四角形 91">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9935,7 +9957,7 @@
           <xdr:cNvPr id="94" name="図 93" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00005E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10009,7 +10031,7 @@
         <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10077,7 +10099,7 @@
         <xdr:cNvPr id="102" name="グループ化 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10085,8 +10107,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10820400" y="26117183"/>
-          <a:ext cx="2809875" cy="1461569"/>
+          <a:off x="10591800" y="25078958"/>
+          <a:ext cx="2748915" cy="1404419"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -10096,7 +10118,7 @@
           <xdr:cNvPr id="107" name="正方形/長方形 106">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10149,7 +10171,7 @@
           <xdr:cNvPr id="108" name="正方形/長方形 107">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10200,7 +10222,7 @@
           <xdr:cNvPr id="109" name="正方形/長方形 108">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10251,7 +10273,7 @@
           <xdr:cNvPr id="110" name="正方形/長方形 109">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00006E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00006E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10321,7 +10343,7 @@
         <xdr:cNvPr id="113" name="グループ化 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10329,8 +10351,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18219964" y="23706364"/>
-          <a:ext cx="7907383" cy="4150179"/>
+          <a:off x="17823724" y="22763389"/>
+          <a:ext cx="7724503" cy="3980634"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10340,7 +10362,7 @@
           <xdr:cNvPr id="114" name="グループ化 113">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000072000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000072000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10359,7 +10381,7 @@
             <xdr:cNvPr id="119" name="正方形/長方形 118">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000077000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000077000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10412,7 +10434,7 @@
             <xdr:cNvPr id="120" name="正方形/長方形 119">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000078000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000078000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10463,7 +10485,7 @@
             <xdr:cNvPr id="121" name="正方形/長方形 120">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000079000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000079000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10514,7 +10536,7 @@
             <xdr:cNvPr id="122" name="正方形/長方形 121">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007A000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10568,7 +10590,7 @@
             <xdr:cNvPr id="124" name="図 123">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10609,7 +10631,7 @@
           <xdr:cNvPr id="115" name="正方形/長方形 114">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000073000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000073000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10660,7 +10682,7 @@
           <xdr:cNvPr id="116" name="角丸四角形 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000074000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10711,7 +10733,7 @@
           <xdr:cNvPr id="118" name="図 117" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000076000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000076000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10720,11 +10742,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId8">
+                  <a14:imgLayer r:embed="rId10">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
@@ -10785,7 +10807,7 @@
         <xdr:cNvPr id="126" name="グループ化 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10793,8 +10815,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19130282" y="24480491"/>
-          <a:ext cx="5938838" cy="3085357"/>
+          <a:off x="18718802" y="23508941"/>
+          <a:ext cx="5801678" cy="2961532"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -10804,7 +10826,7 @@
           <xdr:cNvPr id="131" name="正方形/長方形 130">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000083000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000083000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10857,7 +10879,7 @@
           <xdr:cNvPr id="132" name="正方形/長方形 131">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000084000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000084000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10908,7 +10930,7 @@
           <xdr:cNvPr id="133" name="正方形/長方形 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000085000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000085000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10959,7 +10981,7 @@
           <xdr:cNvPr id="134" name="正方形/長方形 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000086000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000086000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11029,7 +11051,7 @@
         <xdr:cNvPr id="135" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000087000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11095,7 +11117,7 @@
         <xdr:cNvPr id="136" name="図 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11151,7 +11173,7 @@
         <xdr:cNvPr id="159" name="グループ化 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00009F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11159,8 +11181,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27407505" y="23685952"/>
-          <a:ext cx="7894867" cy="4099832"/>
+          <a:off x="26813145" y="22742977"/>
+          <a:ext cx="7711987" cy="3937907"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -11170,7 +11192,7 @@
           <xdr:cNvPr id="160" name="正方形/長方形 159">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A0000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11223,7 +11245,7 @@
           <xdr:cNvPr id="161" name="正方形/長方形 160">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A1000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11274,7 +11296,7 @@
           <xdr:cNvPr id="162" name="正方形/長方形 161">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A2000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11325,7 +11347,7 @@
           <xdr:cNvPr id="163" name="正方形/長方形 162">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11395,7 +11417,7 @@
         <xdr:cNvPr id="164" name="図 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11451,7 +11473,7 @@
         <xdr:cNvPr id="165" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11517,7 +11539,7 @@
         <xdr:cNvPr id="166" name="正方形/長方形 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11583,7 +11605,7 @@
         <xdr:cNvPr id="167" name="角丸四角形 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11649,7 +11671,7 @@
         <xdr:cNvPr id="169" name="図 168" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000A9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11658,11 +11680,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId10">
+                <a14:imgLayer r:embed="rId12">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
@@ -11722,7 +11744,7 @@
         <xdr:cNvPr id="170" name="図 169" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11731,11 +11753,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId12">
+                <a14:imgLayer r:embed="rId14">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -11798,7 +11820,7 @@
         <xdr:cNvPr id="171" name="図 170" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000AB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11807,11 +11829,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId12">
+                <a14:imgLayer r:embed="rId14">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -11874,7 +11896,7 @@
         <xdr:cNvPr id="173" name="角丸四角形 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11940,7 +11962,7 @@
         <xdr:cNvPr id="174" name="正方形/長方形 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12008,7 +12030,7 @@
         <xdr:cNvPr id="175" name="角丸四角形 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12076,7 +12098,7 @@
         <xdr:cNvPr id="172" name="図 171" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000AC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12085,11 +12107,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId12">
+                <a14:imgLayer r:embed="rId14">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -12152,7 +12174,7 @@
         <xdr:cNvPr id="16" name="グループ化 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12160,8 +12182,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20447793" y="27586781"/>
-          <a:ext cx="326263" cy="230911"/>
+          <a:off x="20005833" y="26491406"/>
+          <a:ext cx="311023" cy="221386"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -12171,7 +12193,7 @@
           <xdr:cNvPr id="176" name="正方形/長方形 175">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B0000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000B0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12224,7 +12246,7 @@
           <xdr:cNvPr id="177" name="角丸四角形 176">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B1000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000B1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12293,7 +12315,7 @@
         <xdr:cNvPr id="178" name="正方形/長方形 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12361,7 +12383,7 @@
         <xdr:cNvPr id="179" name="角丸四角形 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000B3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12429,7 +12451,7 @@
         <xdr:cNvPr id="194" name="正方形/長方形 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12495,7 +12517,7 @@
         <xdr:cNvPr id="193" name="角丸四角形 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12561,7 +12583,7 @@
         <xdr:cNvPr id="17" name="グループ化 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12569,8 +12591,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8722398" y="28907700"/>
-          <a:ext cx="2384183" cy="1909648"/>
+          <a:off x="8539518" y="27755175"/>
+          <a:ext cx="2323223" cy="1833448"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -12580,7 +12602,7 @@
           <xdr:cNvPr id="195" name="正方形/長方形 194">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12631,7 +12653,7 @@
           <xdr:cNvPr id="191" name="正方形/長方形 190">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000BF000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000BF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12684,7 +12706,7 @@
           <xdr:cNvPr id="196" name="角丸四角形 195">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C4000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12735,7 +12757,7 @@
           <xdr:cNvPr id="192" name="図 191" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C0000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12744,11 +12766,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId14">
+                  <a14:imgLayer r:embed="rId16">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -12812,7 +12834,7 @@
         <xdr:cNvPr id="213" name="グループ化 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12820,8 +12842,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12879264" y="28921866"/>
-          <a:ext cx="2384183" cy="1861260"/>
+          <a:off x="12604944" y="27769341"/>
+          <a:ext cx="2323223" cy="1785060"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -12831,7 +12853,7 @@
           <xdr:cNvPr id="197" name="正方形/長方形 196">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12882,7 +12904,7 @@
           <xdr:cNvPr id="198" name="正方形/長方形 197">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C6000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12935,7 +12957,7 @@
           <xdr:cNvPr id="199" name="角丸四角形 198">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C7000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C7000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12986,7 +13008,7 @@
           <xdr:cNvPr id="200" name="図 199" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C8000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12995,11 +13017,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId14">
+                  <a14:imgLayer r:embed="rId16">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -13063,7 +13085,7 @@
         <xdr:cNvPr id="201" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000C9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13129,7 +13151,7 @@
         <xdr:cNvPr id="202" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000CA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13195,7 +13217,7 @@
         <xdr:cNvPr id="203" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000CB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13311,7 +13333,7 @@
         <xdr:cNvPr id="204" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000CC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13430,7 +13452,7 @@
         <xdr:cNvPr id="205" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000CD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13549,7 +13571,7 @@
         <xdr:cNvPr id="214" name="グループ化 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13557,8 +13579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4488299" y="28894973"/>
-          <a:ext cx="2384183" cy="1861260"/>
+          <a:off x="4396859" y="27742448"/>
+          <a:ext cx="2323223" cy="1785060"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -13568,7 +13590,7 @@
           <xdr:cNvPr id="207" name="正方形/長方形 206">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CF000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000CF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13619,7 +13641,7 @@
           <xdr:cNvPr id="208" name="正方形/長方形 207">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D0000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13672,7 +13694,7 @@
           <xdr:cNvPr id="209" name="角丸四角形 208">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D1000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13723,7 +13745,7 @@
           <xdr:cNvPr id="210" name="図 209" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D2000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13732,11 +13754,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId14">
+                  <a14:imgLayer r:embed="rId16">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -13800,7 +13822,7 @@
         <xdr:cNvPr id="211" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13866,7 +13888,7 @@
         <xdr:cNvPr id="206" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13950,7 +13972,7 @@
         <xdr:cNvPr id="212" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14061,7 +14083,7 @@
         <xdr:cNvPr id="215" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14180,7 +14202,7 @@
         <xdr:cNvPr id="217" name="直線コネクタ 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14235,7 +14257,7 @@
         <xdr:cNvPr id="220" name="直線コネクタ 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14290,7 +14312,7 @@
         <xdr:cNvPr id="221" name="直線コネクタ 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000DD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14345,7 +14367,7 @@
         <xdr:cNvPr id="226" name="正方形/長方形 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000E2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14413,7 +14435,7 @@
         <xdr:cNvPr id="227" name="図 226" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000E3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000E3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14422,11 +14444,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
+                <a14:imgLayer r:embed="rId18">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                       <a14:foregroundMark x1="46333" y1="21667" x2="55667" y2="23000"/>
@@ -14483,13 +14505,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="図 144" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="145" name="図 144" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent4">
               <a:shade val="45000"/>
@@ -14548,7 +14576,7 @@
         <xdr:cNvPr id="146" name="吹き出し: 角を丸めた四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14629,17 +14657,23 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="図 146" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+        <xdr:cNvPr id="147" name="図 146" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId17">
+                <a14:imgLayer r:embed="rId21">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="4255" b="95745" l="9574" r="89362">
                       <a14:foregroundMark x1="37594" y1="45865" x2="39474" y2="50000"/>
@@ -14695,17 +14729,23 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="図 147" descr="すみっコぐらしofficial web site プロフィール"/>
+        <xdr:cNvPr id="148" name="図 147" descr="すみっコぐらしofficial web site プロフィール">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId19">
+                <a14:imgLayer r:embed="rId23">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -14759,17 +14799,23 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="図 148" descr="フラットなフォルダのイラスト | SOZAIC.com"/>
+        <xdr:cNvPr id="149" name="図 148" descr="フラットなフォルダのイラスト | SOZAIC.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId21">
+                <a14:imgLayer r:embed="rId25">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -14826,7 +14872,7 @@
         <xdr:cNvPr id="150" name="吹き出し: 角を丸めた四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14910,7 +14956,7 @@
         <xdr:cNvPr id="151" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15023,13 +15069,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="図 151" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="152" name="図 151" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15081,7 +15133,7 @@
         <xdr:cNvPr id="154" name="正方形/長方形 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15144,17 +15196,23 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="図 152" descr="回転・更新の矢印のシルエット | 無料のAi・PNG白黒シルエットイラスト"/>
+        <xdr:cNvPr id="153" name="図 152" descr="回転・更新の矢印のシルエット | 無料のAi・PNG白黒シルエットイラスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId24">
+                <a14:imgLayer r:embed="rId28">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -15211,7 +15269,7 @@
         <xdr:cNvPr id="155" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15295,7 +15353,7 @@
         <xdr:cNvPr id="156" name="吹き出し: 角を丸めた四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15376,13 +15434,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="157" name="図 156" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="157" name="図 156" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent4">
               <a:shade val="45000"/>
@@ -15441,7 +15505,7 @@
         <xdr:cNvPr id="158" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15504,20 +15568,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="グループ化 34"/>
+        <xdr:cNvPr id="35" name="グループ化 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4829174" y="32556449"/>
-          <a:ext cx="2129348" cy="2402195"/>
+          <a:off x="4722494" y="31261049"/>
+          <a:ext cx="2083628" cy="2306945"/>
           <a:chOff x="4819649" y="30708599"/>
           <a:chExt cx="2129348" cy="2402195"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="グループ化 33"/>
+          <xdr:cNvPr id="34" name="グループ化 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -15530,13 +15606,19 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="168" name="図 167" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+            <xdr:cNvPr id="168" name="図 167" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000A8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
               <a:duotone>
                 <a:schemeClr val="accent4">
                   <a:shade val="45000"/>
@@ -15580,7 +15662,7 @@
             <xdr:cNvPr id="188" name="直線コネクタ 187">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000D9000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000BC000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15620,7 +15702,7 @@
             <xdr:cNvPr id="189" name="直線コネクタ 188">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DC000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000BD000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15660,7 +15742,7 @@
             <xdr:cNvPr id="190" name="直線コネクタ 189">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000DD000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000BE000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15701,7 +15783,7 @@
           <xdr:cNvPr id="216" name="図 215" descr="マウスカーソルのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C0000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000D8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15710,11 +15792,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId14">
+                  <a14:imgLayer r:embed="rId16">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
                         <a14:foregroundMark x1="42667" y1="41667" x2="47333" y2="50000"/>
@@ -15778,7 +15860,7 @@
         <xdr:cNvPr id="218" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000C9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000DA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15841,26 +15923,38 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvPr id="33" name="グループ化 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9048749" y="32480249"/>
-          <a:ext cx="1701035" cy="1704975"/>
+          <a:off x="8850629" y="31184849"/>
+          <a:ext cx="1670555" cy="1638300"/>
           <a:chOff x="5762624" y="30537149"/>
           <a:chExt cx="1701035" cy="1704975"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="219" name="図 218" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+          <xdr:cNvPr id="219" name="図 218" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
             <a:duotone>
               <a:schemeClr val="accent4">
                 <a:shade val="45000"/>
@@ -15901,7 +15995,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="星 4 31"/>
+          <xdr:cNvPr id="32" name="星 4 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15948,7 +16048,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="星 4 221"/>
+          <xdr:cNvPr id="222" name="星 4 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000DE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15995,7 +16101,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="223" name="星 4 222"/>
+          <xdr:cNvPr id="223" name="星 4 222">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000DF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -16061,7 +16173,7 @@
         <xdr:cNvPr id="224" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000E0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16156,7 +16268,7 @@
         <xdr:cNvPr id="225" name="吹き出し: 角を丸めた四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000CE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000E1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16258,7 +16370,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="Windows 10 自動ログイン（起動時のパスワード入力を省略）する方法 - PC設定のカルマ"/>
+        <xdr:cNvPr id="3" name="図 2" descr="Windows 10 自動ログイン（起動時のパスワード入力を省略）する方法 - PC設定のカルマ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -16313,7 +16431,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16378,7 +16502,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 結合子 5"/>
+        <xdr:cNvPr id="6" name="フローチャート: 結合子 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16440,7 +16570,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16499,7 +16635,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16566,7 +16708,7 @@
         <xdr:cNvPr id="10" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16663,7 +16805,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16725,7 +16873,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16775,7 +16929,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17" descr="パソコン（PC）の壁紙（背景）を変更する方法｜ドスパラ通販【公式】"/>
+        <xdr:cNvPr id="18" name="図 17" descr="パソコン（PC）の壁紙（背景）を変更する方法｜ドスパラ通販【公式】">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -16830,7 +16990,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16898,7 +17064,7 @@
         <xdr:cNvPr id="20" name="正方形/長方形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16964,7 +17130,7 @@
         <xdr:cNvPr id="24" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17080,7 +17246,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="26" name="図 25" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -17135,7 +17307,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="27" name="図 26" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -17190,7 +17368,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="28" name="図 27" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -17245,7 +17429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="29" name="図 28" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -17300,7 +17490,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="30" name="図 29" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -17355,7 +17551,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="31" name="図 30" descr="書類・ファイルを複製のアイコン02素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -17410,7 +17612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17474,7 +17682,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17538,7 +17752,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17602,7 +17822,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17666,7 +17892,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17730,7 +17962,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17794,7 +18032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38" descr="スピーカーのシルエット | 無料のAi・PNG白黒シルエットイラスト"/>
+        <xdr:cNvPr id="39" name="図 38" descr="スピーカーのシルエット | 無料のAi・PNG白黒シルエットイラスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -17863,7 +18107,7 @@
         <xdr:cNvPr id="40" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17960,7 +18204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -17998,20 +18248,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="64" name="グループ化 63"/>
+        <xdr:cNvPr id="64" name="グループ化 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6381750" y="9410700"/>
-          <a:ext cx="5726980" cy="2969000"/>
+          <a:off x="6244590" y="9039225"/>
+          <a:ext cx="5605060" cy="2847080"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="63" name="グループ化 62"/>
+          <xdr:cNvPr id="63" name="グループ化 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -18024,7 +18286,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="53" name="グループ化 52"/>
+            <xdr:cNvPr id="53" name="グループ化 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000035000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -18037,7 +18305,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="51" name="グループ化 50"/>
+              <xdr:cNvPr id="51" name="グループ化 50">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000033000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -18053,7 +18327,7 @@
                 <xdr:cNvPr id="41" name="グループ化 40">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000029000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -18072,7 +18346,7 @@
                   <xdr:cNvPr id="42" name="正方形/長方形 41">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002A000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -18125,7 +18399,7 @@
                   <xdr:cNvPr id="43" name="正方形/長方形 42">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002B000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -18176,7 +18450,7 @@
                   <xdr:cNvPr id="44" name="正方形/長方形 43">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002C000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -18227,7 +18501,7 @@
                   <xdr:cNvPr id="45" name="正方形/長方形 44">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002D000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -18282,7 +18556,7 @@
                 <xdr:cNvPr id="48" name="正方形/長方形 47">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -18333,7 +18607,7 @@
                 <xdr:cNvPr id="49" name="角丸四角形 48">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000031000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -18384,7 +18658,7 @@
                 <xdr:cNvPr id="50" name="角丸四角形 49">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000032000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -18438,7 +18712,7 @@
               <xdr:cNvPr id="52" name="図 51" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000034000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -18497,7 +18771,7 @@
             <xdr:cNvPr id="55" name="正方形/長方形 54">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000037000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18545,7 +18819,13 @@
         </xdr:sp>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="57" name="図 56" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit"/>
+            <xdr:cNvPr id="57" name="図 56" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000039000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -18585,7 +18865,13 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="59" name="図 58" descr="回転・更新の矢印のシルエット | 無料のAi・PNG白黒シルエットイラスト"/>
+            <xdr:cNvPr id="59" name="図 58" descr="回転・更新の矢印のシルエット | 無料のAi・PNG白黒シルエットイラスト">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -18635,7 +18921,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="60" name="図 59" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+          <xdr:cNvPr id="60" name="図 59" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -18686,7 +18978,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="61" name="図 60" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPr id="61" name="図 60" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -18754,7 +19052,7 @@
         <xdr:cNvPr id="62" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18867,7 +19165,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="右矢印 64"/>
+        <xdr:cNvPr id="65" name="右矢印 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18927,7 +19231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19015,7 +19325,7 @@
         <xdr:cNvPr id="67" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19112,7 +19422,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="右矢印 67"/>
+        <xdr:cNvPr id="68" name="右矢印 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19172,7 +19488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19273,20 +19595,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="75" name="グループ化 74"/>
+        <xdr:cNvPr id="75" name="グループ化 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="419099" y="13039724"/>
-          <a:ext cx="5257801" cy="2800351"/>
+          <a:off x="419099" y="12525374"/>
+          <a:ext cx="5135881" cy="2686051"/>
           <a:chOff x="723899" y="13554074"/>
           <a:chExt cx="5257801" cy="2800351"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="70" name="図 69" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPr id="70" name="図 69" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -19335,7 +19669,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="71" name="図 70" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPr id="71" name="図 70" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -19384,7 +19724,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="72" name="図 71" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPr id="72" name="図 71" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -19436,7 +19782,7 @@
           <xdr:cNvPr id="73" name="矢印: 右 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19487,7 +19833,7 @@
           <xdr:cNvPr id="74" name="矢印: 右 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19551,20 +19897,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="78" name="グループ化 77"/>
+        <xdr:cNvPr id="78" name="グループ化 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5772150" y="16973550"/>
-          <a:ext cx="5726980" cy="2969000"/>
+          <a:off x="5650230" y="16297275"/>
+          <a:ext cx="5605060" cy="2854700"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="79" name="グループ化 78"/>
+          <xdr:cNvPr id="79" name="グループ化 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -19577,7 +19935,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="82" name="グループ化 81"/>
+            <xdr:cNvPr id="82" name="グループ化 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000052000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -19590,7 +19954,13 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="86" name="グループ化 85"/>
+              <xdr:cNvPr id="86" name="グループ化 85">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000056000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvGrpSpPr/>
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
@@ -19606,7 +19976,7 @@
                 <xdr:cNvPr id="88" name="グループ化 87">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000058000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -19625,7 +19995,7 @@
                   <xdr:cNvPr id="92" name="正方形/長方形 91">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005C000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -19678,7 +20048,7 @@
                   <xdr:cNvPr id="93" name="正方形/長方形 92">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005D000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -19729,7 +20099,7 @@
                   <xdr:cNvPr id="94" name="正方形/長方形 93">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005E000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -19780,7 +20150,7 @@
                   <xdr:cNvPr id="95" name="正方形/長方形 94">
                     <a:extLst>
                       <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005F000000}"/>
                       </a:ext>
                     </a:extLst>
                   </xdr:cNvPr>
@@ -19835,7 +20205,7 @@
                 <xdr:cNvPr id="89" name="正方形/長方形 88">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000059000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -19886,7 +20256,7 @@
                 <xdr:cNvPr id="90" name="角丸四角形 89">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005A000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -19937,7 +20307,7 @@
                 <xdr:cNvPr id="91" name="角丸四角形 90">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00005B000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -19991,7 +20361,7 @@
               <xdr:cNvPr id="87" name="図 86" descr="更新マークのシルエット02 | 無料のAi・PNG白黒シルエットイラスト">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000057000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -20050,7 +20420,7 @@
             <xdr:cNvPr id="83" name="正方形/長方形 82">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000053000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20098,7 +20468,13 @@
         </xdr:sp>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="84" name="図 83" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit"/>
+            <xdr:cNvPr id="84" name="図 83" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000054000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -20138,7 +20514,13 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="85" name="図 84" descr="回転・更新の矢印のシルエット | 無料のAi・PNG白黒シルエットイラスト"/>
+            <xdr:cNvPr id="85" name="図 84" descr="回転・更新の矢印のシルエット | 無料のAi・PNG白黒シルエットイラスト">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000055000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -20188,7 +20570,13 @@
       </xdr:grpSp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="81" name="図 80" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPr id="81" name="図 80" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -20237,7 +20625,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="80" name="図 79" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+          <xdr:cNvPr id="80" name="図 79" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -20304,7 +20698,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="図 95" descr="ASCII.jp：Windows 10で「変更を加えることを許可しますか？」って出るのが邪魔"/>
+        <xdr:cNvPr id="96" name="図 95" descr="ASCII.jp：Windows 10で「変更を加えることを許可しますか？」って出るのが邪魔">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -20359,7 +20759,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="正方形/長方形 96"/>
+        <xdr:cNvPr id="97" name="正方形/長方形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20422,7 +20828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+        <xdr:cNvPr id="99" name="正方形/長方形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20486,7 +20898,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="直線コネクタ 105"/>
+        <xdr:cNvPr id="106" name="直線コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -20535,7 +20953,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20604,7 +21028,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20673,7 +21103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="テキスト ボックス 109"/>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20734,7 +21170,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="テキスト ボックス 110"/>
+        <xdr:cNvPr id="111" name="テキスト ボックス 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20796,7 +21238,7 @@
         <xdr:cNvPr id="114" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20963,7 +21405,7 @@
         <xdr:cNvPr id="115" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21060,7 +21502,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="図 116" descr="https://itojisan.xyz/wp-content/uploads/2019/07/925eaf1a908d7313e66f9f1909df076a-380x246.jpg"/>
+        <xdr:cNvPr id="117" name="図 116" descr="https://itojisan.xyz/wp-content/uploads/2019/07/925eaf1a908d7313e66f9f1909df076a-380x246.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -21115,7 +21563,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21177,7 +21631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="テキスト ボックス 118"/>
+        <xdr:cNvPr id="119" name="テキスト ボックス 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21240,7 +21700,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="テキスト ボックス 119"/>
+        <xdr:cNvPr id="120" name="テキスト ボックス 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21303,7 +21769,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21372,7 +21844,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="テキスト ボックス 122"/>
+        <xdr:cNvPr id="123" name="テキスト ボックス 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21438,7 +21916,7 @@
         <xdr:cNvPr id="124" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21538,7 +22016,7 @@
         <xdr:cNvPr id="125" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21635,7 +22113,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="128" name="図 127" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+        <xdr:cNvPr id="128" name="図 127" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -21645,7 +22129,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId19">
+                <a14:imgLayer r:embed="rId23">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
                       <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
@@ -21701,7 +22185,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="図 128" descr="すみっコぐらしofficial web site プロフィール"/>
+        <xdr:cNvPr id="129" name="図 128" descr="すみっコぐらしofficial web site プロフィール">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -21766,7 +22256,7 @@
         <xdr:cNvPr id="130" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21829,7 +22319,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="図 130" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+        <xdr:cNvPr id="131" name="図 130" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -21839,7 +22335,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId19">
+                <a14:imgLayer r:embed="rId23">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
                       <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
@@ -21898,7 +22394,7 @@
         <xdr:cNvPr id="134" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21961,20 +22457,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="135" name="グループ化 134"/>
+        <xdr:cNvPr id="135" name="グループ化 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11963400" y="13849047"/>
-          <a:ext cx="1400175" cy="1638602"/>
+          <a:off x="11704320" y="13296597"/>
+          <a:ext cx="1369695" cy="1571927"/>
           <a:chOff x="12134850" y="14182422"/>
           <a:chExt cx="1400175" cy="1638602"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="132" name="図 131" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE"/>
+          <xdr:cNvPr id="132" name="図 131" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -21984,7 +22492,7 @@
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId19">
+                  <a14:imgLayer r:embed="rId23">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
                         <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
@@ -22025,7 +22533,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="133" name="図 132" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPr id="133" name="図 132" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -22088,17 +22602,23 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="137" name="図 136" descr="爆発の煙イラストのフリー素材｜イラストイメージ"/>
+        <xdr:cNvPr id="137" name="図 136" descr="爆発の煙イラストのフリー素材｜イラストイメージ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId24">
+                <a14:imgLayer r:embed="rId25">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -22164,17 +22684,23 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="図 137" descr="フラットなフォルダのイラスト | SOZAIC.com"/>
+        <xdr:cNvPr id="138" name="図 137" descr="フラットなフォルダのイラスト | SOZAIC.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId26">
+                <a14:imgLayer r:embed="rId27">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -22231,7 +22757,7 @@
         <xdr:cNvPr id="139" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22297,7 +22823,7 @@
         <xdr:cNvPr id="140" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22360,7 +22886,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="図 140" descr="すみっコぐらしofficial web site プロフィール"/>
+        <xdr:cNvPr id="141" name="図 140" descr="すみっコぐらしofficial web site プロフィール">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -22422,17 +22954,23 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="142" name="図 141" descr="フラットなフォルダのイラスト | SOZAIC.com"/>
+        <xdr:cNvPr id="142" name="図 141" descr="フラットなフォルダのイラスト | SOZAIC.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId26">
+                <a14:imgLayer r:embed="rId27">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -22486,17 +23024,23 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="143" name="図 142" descr="爆発の煙イラストのフリー素材｜イラストイメージ"/>
+        <xdr:cNvPr id="143" name="図 142" descr="爆発の煙イラストのフリー素材｜イラストイメージ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId24">
+                <a14:imgLayer r:embed="rId29">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                   </a14:imgEffect>
@@ -22562,30 +23106,42 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="146" name="グループ化 145"/>
+        <xdr:cNvPr id="146" name="グループ化 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21021675" y="13706475"/>
-          <a:ext cx="2254103" cy="1885949"/>
+          <a:off x="20564475" y="13163550"/>
+          <a:ext cx="2208383" cy="1809749"/>
           <a:chOff x="21002625" y="13639800"/>
           <a:chExt cx="2254103" cy="1885949"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="144" name="図 143" descr="フラットなフォルダのイラスト | SOZAIC.com"/>
+          <xdr:cNvPr id="144" name="図 143" descr="フラットなフォルダのイラスト | SOZAIC.com">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000090000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId26">
+                  <a14:imgLayer r:embed="rId27">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
                     </a14:imgEffect>
@@ -22624,7 +23180,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="145" name="図 144" descr="すみっコぐらしofficial web site プロフィール"/>
+          <xdr:cNvPr id="145" name="図 144" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000091000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -22687,13 +23249,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="図 147" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ"/>
+        <xdr:cNvPr id="148" name="図 147" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent3">
               <a:shade val="45000"/>
@@ -22756,13 +23324,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="図 148" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ"/>
+        <xdr:cNvPr id="149" name="図 148" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent3">
               <a:shade val="45000"/>
@@ -22828,7 +23402,7 @@
         <xdr:cNvPr id="116" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22912,7 +23486,7 @@
         <xdr:cNvPr id="121" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23012,7 +23586,7 @@
         <xdr:cNvPr id="126" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23096,7 +23670,7 @@
         <xdr:cNvPr id="127" name="吹き出し: 角を丸めた四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23236,7 +23810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="正方形/長方形 146"/>
+        <xdr:cNvPr id="147" name="正方形/長方形 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23305,7 +23885,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="150" name="図 149" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit"/>
+        <xdr:cNvPr id="150" name="図 149" descr="ホーム・家のアイコン03素材 | 無料のアイコンイラスト集 icon-pit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -23360,7 +23946,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23466,7 +24058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23535,7 +24133,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23604,7 +24208,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23673,7 +24283,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23742,7 +24358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23811,7 +24433,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="右矢印 9"/>
+        <xdr:cNvPr id="10" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23871,7 +24499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="右矢印 12"/>
+        <xdr:cNvPr id="13" name="右矢印 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23931,7 +24565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="右矢印 13"/>
+        <xdr:cNvPr id="14" name="右矢印 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23991,7 +24631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="右矢印 14"/>
+        <xdr:cNvPr id="15" name="右矢印 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24051,7 +24697,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="右矢印 15"/>
+        <xdr:cNvPr id="16" name="右矢印 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24111,7 +24763,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24171,7 +24829,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24231,7 +24895,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="左右矢印 18"/>
+        <xdr:cNvPr id="19" name="左右矢印 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24291,7 +24961,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="左右矢印 19"/>
+        <xdr:cNvPr id="20" name="左右矢印 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24351,7 +25027,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="左右矢印 20"/>
+        <xdr:cNvPr id="21" name="左右矢印 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24695,49 +25377,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -24749,174 +25431,174 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
       <c r="Q3" s="20"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="21"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>233</v>
       </c>
@@ -24924,17 +25606,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>211</v>
       </c>
@@ -24942,12 +25624,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>213</v>
       </c>
@@ -24955,27 +25637,27 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>216</v>
       </c>
@@ -24983,22 +25665,22 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>220</v>
       </c>
@@ -25006,17 +25688,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>218</v>
       </c>
@@ -25026,6 +25708,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -25037,19 +25732,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25058,154 +25740,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -25217,59 +25899,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -25281,114 +25963,114 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -25400,153 +26082,150 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -25560,297 +26239,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -25864,269 +26543,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="11" t="s">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -26140,39 +26819,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -26183,7 +26862,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -26194,12 +26873,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>136</v>
       </c>
@@ -26213,14 +26892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C01A719-468A-4AFB-A94F-577A2D9AEA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530029D-65A2-4C92-998D-DA82D8028FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2659,13 +2659,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エフェクトや演出</t>
-    <rPh sb="6" eb="8">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モード切り替え(演出含む)</t>
     <rPh sb="3" eb="4">
       <t>キ</t>
@@ -3045,6 +3038,10 @@
   </si>
   <si>
     <t>ステージUI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクトや演出</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3368,32 +3365,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3401,8 +3395,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25440,60 +25437,60 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>232</v>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
+        <v>231</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
-        <v>206</v>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>205</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="16" t="s">
-        <v>208</v>
+      <c r="B4" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -25515,11 +25512,11 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="16" t="s">
-        <v>207</v>
+      <c r="B5" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -25537,20 +25534,22 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
-        <v>236</v>
+      <c r="B6" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -25561,166 +25560,151 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="12" t="s">
-        <v>237</v>
+      <c r="B7" s="21" t="s">
+        <v>236</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>205</v>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>208</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -25732,6 +25716,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530029D-65A2-4C92-998D-DA82D8028FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3048,7 +3047,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3117,7 +3116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3139,6 +3138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3331,7 +3336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3365,29 +3370,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3395,10 +3403,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25374,49 +25388,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -25428,94 +25442,94 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="20"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="16" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="14" t="s">
         <v>201</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="14"/>
@@ -25538,10 +25552,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C6" s="14"/>
@@ -25564,38 +25578,38 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="17"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>232</v>
       </c>
@@ -25603,17 +25617,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>210</v>
       </c>
@@ -25621,12 +25635,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>212</v>
       </c>
@@ -25634,27 +25648,27 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>215</v>
       </c>
@@ -25662,22 +25676,22 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>219</v>
       </c>
@@ -25685,17 +25699,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>217</v>
       </c>
@@ -25705,6 +25719,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -25716,19 +25743,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25737,154 +25751,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -25896,59 +25910,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -25960,114 +25974,114 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -26079,150 +26093,150 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -26236,297 +26250,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -26540,269 +26554,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -26816,39 +26830,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -26859,7 +26873,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -26870,12 +26884,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>136</v>
       </c>
@@ -26889,14 +26903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -3370,49 +3370,49 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25451,85 +25451,85 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="13" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="14" t="s">
         <v>201</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="14"/>
@@ -25552,10 +25552,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C6" s="14"/>
@@ -25578,30 +25578,30 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
@@ -25719,19 +25719,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -25743,6 +25730,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="243">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3041,6 +3041,30 @@
   </si>
   <si>
     <t>エフェクトや演出</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白線削除</t>
+    <rPh sb="0" eb="2">
+      <t>ハクセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンプの調整</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Groundでも飛べるように</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3336,7 +3360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3370,34 +3394,34 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3406,13 +3430,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6433,8 +6463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="670560"/>
-          <a:ext cx="7734300" cy="3947160"/>
+          <a:off x="220980" y="703217"/>
+          <a:ext cx="7842069" cy="4241074"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -7468,8 +7498,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="18192750"/>
-          <a:ext cx="7734300" cy="3981451"/>
+          <a:off x="228600" y="19482707"/>
+          <a:ext cx="7842069" cy="4275365"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -8026,8 +8056,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9022080" y="18192750"/>
-          <a:ext cx="7738110" cy="3955286"/>
+          <a:off x="9149443" y="19482707"/>
+          <a:ext cx="7845878" cy="4232872"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -8972,8 +9002,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="22783800"/>
-          <a:ext cx="7734300" cy="3981451"/>
+          <a:off x="266700" y="24400329"/>
+          <a:ext cx="7842069" cy="4275365"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -9545,8 +9575,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9022080" y="22774275"/>
-          <a:ext cx="7734300" cy="3981451"/>
+          <a:off x="9149443" y="24390804"/>
+          <a:ext cx="7842068" cy="4275365"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10118,8 +10148,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10591800" y="25078958"/>
-          <a:ext cx="2748915" cy="1404419"/>
+          <a:off x="10738757" y="26858772"/>
+          <a:ext cx="2788104" cy="1502391"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -10362,8 +10392,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17823724" y="22763389"/>
-          <a:ext cx="7724503" cy="3980634"/>
+          <a:off x="18078450" y="24379918"/>
+          <a:ext cx="7842068" cy="4265839"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10826,8 +10856,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18718802" y="23508941"/>
-          <a:ext cx="5801678" cy="2961532"/>
+          <a:off x="18983325" y="25174455"/>
+          <a:ext cx="5889852" cy="3173804"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -11192,8 +11222,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26813145" y="22742977"/>
-          <a:ext cx="7711987" cy="3937907"/>
+          <a:off x="27195234" y="24359506"/>
+          <a:ext cx="7829552" cy="4215492"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -12193,8 +12223,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20005833" y="26491406"/>
-          <a:ext cx="311023" cy="221386"/>
+          <a:off x="20289950" y="28369192"/>
+          <a:ext cx="320820" cy="237714"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -12602,8 +12632,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8539518" y="27755175"/>
-          <a:ext cx="2323223" cy="1833448"/>
+          <a:off x="8657084" y="29730932"/>
+          <a:ext cx="2362411" cy="1964077"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -12853,8 +12883,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12604944" y="27769341"/>
-          <a:ext cx="2323223" cy="1785060"/>
+          <a:off x="12781293" y="29745098"/>
+          <a:ext cx="2362411" cy="1915689"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -13590,8 +13620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4396859" y="27742448"/>
-          <a:ext cx="2323223" cy="1785060"/>
+          <a:off x="4455642" y="29718205"/>
+          <a:ext cx="2362411" cy="1915689"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -15590,8 +15620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4722494" y="31261049"/>
-          <a:ext cx="2083628" cy="2306945"/>
+          <a:off x="4791074" y="33481735"/>
+          <a:ext cx="2113019" cy="2470230"/>
           <a:chOff x="4819649" y="30708599"/>
           <a:chExt cx="2129348" cy="2402195"/>
         </a:xfrm>
@@ -15945,8 +15975,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8850629" y="31184849"/>
-          <a:ext cx="1670555" cy="1638300"/>
+          <a:off x="8977992" y="33405535"/>
+          <a:ext cx="1690149" cy="1752600"/>
           <a:chOff x="5762624" y="30537149"/>
           <a:chExt cx="1701035" cy="1704975"/>
         </a:xfrm>
@@ -25451,85 +25481,85 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="19" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="14" t="s">
         <v>201</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="14"/>
@@ -25555,7 +25585,7 @@
       <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C6" s="14"/>
@@ -25573,36 +25603,36 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -25640,7 +25670,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>212</v>
       </c>
@@ -25648,27 +25678,36 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>225</v>
       </c>
+      <c r="I19" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>227</v>
       </c>
+      <c r="I20" t="s">
+        <v>241</v>
+      </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>226</v>
       </c>
+      <c r="I21" t="s">
+        <v>242</v>
+      </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>215</v>
       </c>
@@ -25676,22 +25715,22 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>219</v>
       </c>
@@ -25699,12 +25738,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>234</v>
       </c>
@@ -25719,6 +25758,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -25730,19 +25782,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26557,7 +26596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3041,30 +3041,6 @@
   </si>
   <si>
     <t>エフェクトや演出</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>白線削除</t>
-    <rPh sb="0" eb="2">
-      <t>ハクセン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジャンプの調整</t>
-    <rPh sb="5" eb="7">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Groundでも飛べるように</t>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3394,6 +3370,45 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3403,46 +3418,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25481,85 +25457,85 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="15" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="14" t="s">
         <v>201</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="14"/>
@@ -25582,10 +25558,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="22"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C6" s="14"/>
@@ -25603,36 +25579,36 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="26" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -25670,7 +25646,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>212</v>
       </c>
@@ -25678,36 +25654,27 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>225</v>
       </c>
-      <c r="I19" t="s">
-        <v>240</v>
-      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>227</v>
       </c>
-      <c r="I20" t="s">
-        <v>241</v>
-      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>226</v>
       </c>
-      <c r="I21" t="s">
-        <v>242</v>
-      </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>215</v>
       </c>
@@ -25715,22 +25682,22 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>219</v>
       </c>
@@ -25738,12 +25705,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>234</v>
       </c>
@@ -25758,19 +25725,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -25782,6 +25736,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AF49F-8889-4B4E-AA76-1602B83DD389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="242">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3043,11 +3044,43 @@
     <t>エフェクトや演出</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ツールバーを押した時に主人公が動く</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モード切替の時に主人公が動く</t>
+    <rPh sb="3" eb="5">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3370,22 +3403,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3393,6 +3426,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3403,22 +3439,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6439,8 +6472,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="703217"/>
-          <a:ext cx="7842069" cy="4241074"/>
+          <a:off x="220980" y="670560"/>
+          <a:ext cx="7782197" cy="3947160"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -7474,8 +7507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="19482707"/>
-          <a:ext cx="7842069" cy="4275365"/>
+          <a:off x="228600" y="18192750"/>
+          <a:ext cx="7782197" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -8032,8 +8065,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9149443" y="19482707"/>
-          <a:ext cx="7845878" cy="4232872"/>
+          <a:off x="9078686" y="18192750"/>
+          <a:ext cx="7786007" cy="3955286"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -8978,8 +9011,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="24400329"/>
-          <a:ext cx="7842069" cy="4275365"/>
+          <a:off x="266700" y="22783800"/>
+          <a:ext cx="7782197" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -9551,8 +9584,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9149443" y="24390804"/>
-          <a:ext cx="7842068" cy="4275365"/>
+          <a:off x="9078686" y="22774275"/>
+          <a:ext cx="7782197" cy="3981451"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10124,8 +10157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10738757" y="26858772"/>
-          <a:ext cx="2788104" cy="1502391"/>
+          <a:off x="10657114" y="25078958"/>
+          <a:ext cx="2766332" cy="1404419"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -10368,8 +10401,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18078450" y="24379918"/>
-          <a:ext cx="7842068" cy="4265839"/>
+          <a:off x="17936935" y="22763389"/>
+          <a:ext cx="7776755" cy="3980634"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10832,8 +10865,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18983325" y="25174455"/>
-          <a:ext cx="5889852" cy="3173804"/>
+          <a:off x="18836368" y="23508941"/>
+          <a:ext cx="5840866" cy="2961532"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -11198,8 +11231,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27195234" y="24359506"/>
-          <a:ext cx="7829552" cy="4215492"/>
+          <a:off x="26982962" y="22742977"/>
+          <a:ext cx="7764239" cy="3937907"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -12199,8 +12232,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20289950" y="28369192"/>
-          <a:ext cx="320820" cy="237714"/>
+          <a:off x="20132107" y="26491406"/>
+          <a:ext cx="315378" cy="221386"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -12608,8 +12641,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8657084" y="29730932"/>
-          <a:ext cx="2362411" cy="1964077"/>
+          <a:off x="8591769" y="27755175"/>
+          <a:ext cx="2340641" cy="1833448"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -12859,8 +12892,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12781293" y="29745098"/>
-          <a:ext cx="2362411" cy="1915689"/>
+          <a:off x="12683321" y="27769341"/>
+          <a:ext cx="2340640" cy="1785060"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -13596,8 +13629,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4455642" y="29718205"/>
-          <a:ext cx="2362411" cy="1915689"/>
+          <a:off x="4422985" y="27742448"/>
+          <a:ext cx="2340640" cy="1785060"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -15596,8 +15629,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4791074" y="33481735"/>
-          <a:ext cx="2113019" cy="2470230"/>
+          <a:off x="4752974" y="31261049"/>
+          <a:ext cx="2096691" cy="2306945"/>
           <a:chOff x="4819649" y="30708599"/>
           <a:chExt cx="2129348" cy="2402195"/>
         </a:xfrm>
@@ -15951,8 +15984,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8977992" y="33405535"/>
-          <a:ext cx="1690149" cy="1752600"/>
+          <a:off x="8907235" y="31184849"/>
+          <a:ext cx="1679263" cy="1638300"/>
           <a:chOff x="5762624" y="30537149"/>
           <a:chExt cx="1701035" cy="1704975"/>
         </a:xfrm>
@@ -25394,49 +25427,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -25448,94 +25481,94 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="20" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="14"/>
@@ -25558,10 +25591,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="25"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>235</v>
       </c>
       <c r="C6" s="14"/>
@@ -25579,30 +25612,30 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="17" t="s">
         <v>203</v>
       </c>
@@ -25610,12 +25643,12 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>232</v>
       </c>
@@ -25623,30 +25656,38 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="K14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>210</v>
       </c>
       <c r="C15" t="s">
         <v>211</v>
       </c>
+      <c r="K15" t="s">
+        <v>241</v>
+      </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>212</v>
       </c>
@@ -25654,27 +25695,27 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>215</v>
       </c>
@@ -25682,22 +25723,22 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>219</v>
       </c>
@@ -25705,17 +25746,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>217</v>
       </c>
@@ -25725,6 +25766,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -25736,19 +25790,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25757,154 +25798,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -25916,59 +25957,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -25980,114 +26021,114 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -26099,150 +26140,150 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -26256,297 +26297,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -26560,269 +26601,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -26836,39 +26877,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -26879,7 +26920,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -26890,12 +26931,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>136</v>
       </c>
@@ -26909,14 +26950,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AF49F-8889-4B4E-AA76-1602B83DD389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F538FBE4-D862-493B-A385-C863232789C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="247">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -1796,28 +1796,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ウイルスの出現演出/処理演出/感染演出</t>
-    <rPh sb="5" eb="7">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンセン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲームオーバー画面</t>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
@@ -1910,28 +1888,6 @@
     <t>・ステージ画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・ウイルスの出現演出/処理演出/感染演出</t>
-    <rPh sb="6" eb="8">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンセン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>エンシュツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3045,34 +3001,86 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ツールバーを押した時に主人公が動く</t>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウゴ</t>
+    <t>・シーン移動</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モード切替の時に主人公が動く</t>
+    <t>タスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　イラストは、1 → 2 → 3 → 2 → 1 の順番で行き来する</t>
+    <rPh sb="26" eb="28">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>イキキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　イラストの変更に加え、少し位置を上下させて、フワフワさせる</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウゲ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>待機アニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出現/処理/感染アニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>キリカエ</t>
-    </rPh>
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・出現/処理/感染アニメーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・待機アニメーション</t>
+    <rPh sb="1" eb="3">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ボタンを押してもウイルスが動かないように調整</t>
     <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>ウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3403,22 +3411,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3426,9 +3434,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3439,19 +3444,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3775,6 +3783,2372 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27C36FA-8923-05F3-59DE-B54E6B52B089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="175260" y="10203180"/>
+          <a:ext cx="1501140" cy="1501140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66180</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>178080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A57621-67A2-E371-1676-67DFEFF61115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2748420" y="10236480"/>
+          <a:ext cx="1503540" cy="1503540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E078DED-481F-CE89-8D21-FD0838F68755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1889760" y="10873740"/>
+          <a:ext cx="662940" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8CAD2A-5457-420F-9494-69C841B1DF3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="12420600"/>
+          <a:ext cx="1501140" cy="1501140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48082</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>210502</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>84278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB9C1C8-0DD9-4080-929B-A047A30AE843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2734132" y="12296738"/>
+          <a:ext cx="1505445" cy="1503540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矢印: 右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A654CEC-61DE-4222-A4A0-C3FED63FFF55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1874520" y="13091160"/>
+          <a:ext cx="662940" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F21E149-264C-4A70-463A-DE41057931E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3489960" y="12931140"/>
+          <a:ext cx="0" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176645</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>72736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2C0703-26E5-854D-53EF-BC15E442F228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3463636" y="13258800"/>
+          <a:ext cx="72736" cy="72736"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>214746</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>287482</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD9C8FA-6D79-606A-EE30-707E2728A79D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="886691" y="13262264"/>
+          <a:ext cx="72736" cy="72736"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>75247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矢印: 右 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEEBB541-4ECA-2DE2-E53B-791C7242A719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="13105447"/>
+          <a:ext cx="663893" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>200978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC3969D-7E67-25DA-8063-48CDD7AB6C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5551170" y="12415838"/>
+          <a:ext cx="1503045" cy="1501140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233796</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>227302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306532</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6F7F15-280C-5546-8BF1-A6A62AF10DAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6277409" y="13257502"/>
+          <a:ext cx="72736" cy="72736"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>255943</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>225463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415964</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>126403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458FEF8B-BA22-1D75-4F44-2698A4AE5F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5634767" y="10481087"/>
+          <a:ext cx="1504726" cy="1532516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557605</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>147469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549985</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矢印: 右 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99D377F-2D9A-1889-8E60-694B3B324D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591723" y="11102340"/>
+          <a:ext cx="664733" cy="248322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1369695" cy="1343025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39043500-8022-482F-AAAD-5CEB07D4A368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
+                      <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1426846" y="17518379"/>
+          <a:ext cx="1369695" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>156211</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26" descr="すみっコぐらしofficial web site プロフィール">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDF4CE3-FCB5-435B-8736-0AEF515E0687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId10">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="21089" t="33674" r="23810" b="17347"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17556480"/>
+          <a:ext cx="1497331" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>194311</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>159046</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>72295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2410E4F1-BF0A-4FAC-9155-5F861D8D798C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876551" y="18080355"/>
+          <a:ext cx="635295" cy="279940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299086</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>192404</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1369695" cy="1343025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D902D1B4-2A50-41F0-AEC9-887BF8BF9C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
+                      <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3651886" y="17566004"/>
+          <a:ext cx="1369695" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375286</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>340021</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>62770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85BC615-720B-4476-9AAC-BBCA3377E8E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5069206" y="18070830"/>
+          <a:ext cx="635295" cy="279940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441961</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>30177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>470536</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76531A5-C129-411F-93CC-ED180B8FDDAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5806441" y="17403777"/>
+          <a:ext cx="1369695" cy="1571927"/>
+          <a:chOff x="12134850" y="14182422"/>
+          <a:chExt cx="1400175" cy="1638602"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="32" name="図 31" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C50F20-57DC-FBBD-6877-FEFE98417F54}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId8">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
+                        <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
+                      </a14:backgroundRemoval>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="12134850" y="14420849"/>
+            <a:ext cx="1400175" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="33" name="図 32" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8350D1C-2099-1520-1696-F9E74943BE51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId10">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="21089" t="33674" r="23810" b="38053"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="12275525" y="14182422"/>
+            <a:ext cx="1085851" cy="557149"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>220979</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1436371" cy="1400176"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33" descr="爆発の煙イラストのフリー素材｜イラストイメージ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515B1452-A491-4A38-8750-AE7137464CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3556635" y="17365979"/>
+          <a:ext cx="1436371" cy="1400176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="bg1">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>468631</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2208383" cy="1457325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34" descr="フラットなフォルダのイラスト | SOZAIC.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF92C76D-51C0-48EE-A7BB-FAAA25C3ED30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId14">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1139191" y="20267294"/>
+          <a:ext cx="2208383" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>516256</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480991</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>87535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E162DE-8776-4146-A851-A7F7AA35CFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3198496" y="20838795"/>
+          <a:ext cx="635295" cy="279940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642916</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>49435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68ADC51E-57BB-4223-AC0A-8826316F3A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035041" y="20810220"/>
+          <a:ext cx="642915" cy="270415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163831</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>207645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37" descr="すみっコぐらしofficial web site プロフィール">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A063BAB6-C539-4137-890C-B5CAAC98A628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId10">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="21089" t="33674" r="23810" b="17347"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20372070"/>
+          <a:ext cx="1504951" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>421006</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2208383" cy="1457325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38" descr="フラットなフォルダのイラスト | SOZAIC.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF3FB09-1DFF-4AD2-93E5-8A80B6B98594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId14">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3773806" y="20248244"/>
+          <a:ext cx="2208383" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>74294</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1436371" cy="1409701"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39" descr="爆発の煙イラストのフリー素材｜イラストイメージ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10322DA-0B45-492F-AFFC-352A3E9EE439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId16">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4120515" y="20191094"/>
+          <a:ext cx="1436371" cy="1409701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="bg1">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449581</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>646284</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="グループ化 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB09948-9ADE-448C-A82B-A46328998BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6484621" y="20029170"/>
+          <a:ext cx="2208383" cy="1809749"/>
+          <a:chOff x="21002625" y="13639800"/>
+          <a:chExt cx="2254103" cy="1885949"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="42" name="図 41" descr="フラットなフォルダのイラスト | SOZAIC.com">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E61E6B-7558-7550-A72F-0B69CC50823D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId14">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="21002625" y="14011274"/>
+            <a:ext cx="2254103" cy="1514475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="43" name="図 42" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8455C767-21FF-EAAA-D470-F85667DABBD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId10">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="21089" t="33674" r="23810" b="40476"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="21326474" y="13639800"/>
+            <a:ext cx="1543051" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>535306</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603885" cy="600075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D9550A-0AAC-4FBD-AD25-6F16B256FC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7911466" y="20619719"/>
+          <a:ext cx="603885" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11431</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="670560" cy="666750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4809BC3-6A07-4D83-9086-FC9FF811F3DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6717031" y="21057870"/>
+          <a:ext cx="670560" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137161</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>72391</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="グループ化 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEB9AD8-EA16-4949-BFAA-3DC4724F6B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="365760" y="14531340"/>
+          <a:ext cx="5135881" cy="2228851"/>
+          <a:chOff x="723899" y="13554074"/>
+          <a:chExt cx="5257801" cy="2800351"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="47" name="図 46" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE884E58-73D9-8723-75EC-0BF5431FCEBA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId10">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3181349" y="13554074"/>
+            <a:ext cx="2800351" cy="2800351"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="48" name="図 47" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0D11F9-1766-3697-566F-FD96C82D195F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId20">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="723899" y="14963775"/>
+            <a:ext cx="276225" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="49" name="図 48" descr="すみっコぐらしofficial web site プロフィール">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC44053-1AC7-5957-22D9-054F9B0B8E9A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId10">
+                    <a14:imgEffect>
+                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1914525" y="14458950"/>
+            <a:ext cx="1200150" cy="1200150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="矢印: 右 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917B5710-9ADC-B5B1-3ECA-0141B33DD386}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1295399" y="14982825"/>
+            <a:ext cx="650535" cy="289465"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="矢印: 右 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469C1586-F165-5259-A7AD-F41D5FFA8F29}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3038474" y="15001875"/>
+            <a:ext cx="650535" cy="289465"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19632,317 +22006,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="75" name="グループ化 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="419099" y="12525374"/>
-          <a:ext cx="5135881" cy="2686051"/>
-          <a:chOff x="723899" y="13554074"/>
-          <a:chExt cx="5257801" cy="2800351"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="70" name="図 69" descr="すみっコぐらしofficial web site プロフィール">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000046000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId15">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3181349" y="13554074"/>
-            <a:ext cx="2800351" cy="2800351"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="71" name="図 70" descr="すみっコぐらしofficial web site プロフィール">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000047000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId17">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="723899" y="14963775"/>
-            <a:ext cx="276225" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="72" name="図 71" descr="すみっコぐらしofficial web site プロフィール">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000048000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId15">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1914525" y="14458950"/>
-            <a:ext cx="1200150" cy="1200150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="矢印: 右 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000049000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1295399" y="14982825"/>
-            <a:ext cx="650535" cy="289465"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="矢印: 右 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00004A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3038474" y="15001875"/>
-            <a:ext cx="650535" cy="289465"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>526330</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>178175</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -19958,7 +22030,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5650230" y="16297275"/>
+          <a:off x="5650230" y="13782675"/>
           <a:ext cx="5605060" cy="2854700"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
@@ -20687,11 +22759,11 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
             <a:extLst>
               <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
                 <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId19">
+                  <a14:imgLayer r:embed="rId17">
                     <a14:imgEffect>
                       <a14:backgroundRemoval t="4511" b="89850" l="9774" r="89850">
                         <a14:foregroundMark x1="37594" y1="45865" x2="39474" y2="50000"/>
@@ -20737,13 +22809,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20760,7 +22832,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20798,13 +22870,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20867,13 +22939,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20937,13 +23009,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20992,13 +23064,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>255814</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21067,13 +23139,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21142,13 +23214,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>332015</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>234044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21209,13 +23281,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>212272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21274,13 +23346,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21441,13 +23513,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21541,13 +23613,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>168352</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21564,7 +23636,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21602,13 +23674,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>93300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21670,13 +23742,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>138794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21739,13 +23811,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>214994</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21808,13 +23880,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>641059</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21883,13 +23955,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>62594</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21952,13 +24024,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22052,13 +24124,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -22146,1292 +24218,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="128" name="図 127" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000080000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId23">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
-                      <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7477125" y="13963649"/>
-          <a:ext cx="1400175" cy="1400175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="図 128" descr="すみっコぐらしofficial web site プロフィール">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000081000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId15">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="21089" t="33674" r="23810" b="17347"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6019799" y="14001750"/>
-          <a:ext cx="1543051" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>21885</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>79915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="矢印: 右 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000082000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8972550" y="14554200"/>
-          <a:ext cx="650535" cy="289465"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="図 130" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000083000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId23">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
-                      <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
-                    </a14:backgroundRemoval>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9763125" y="14011274"/>
-          <a:ext cx="1400175" cy="1400175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>202860</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>70390</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="矢印: 右 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000086000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11210925" y="14544675"/>
-          <a:ext cx="650535" cy="289465"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>37797</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="135" name="グループ化 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000087000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11704320" y="13296597"/>
-          <a:ext cx="1369695" cy="1571927"/>
-          <a:chOff x="12134850" y="14182422"/>
-          <a:chExt cx="1400175" cy="1638602"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="132" name="図 131" descr="ごみ箱のファイルの自動削除と期間の設定 [Windows10] | JOHOBASE">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000084000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId23">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="3008" b="94361" l="9398" r="89850">
-                        <a14:foregroundMark x1="36466" y1="49624" x2="37218" y2="52256"/>
-                      </a14:backgroundRemoval>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="12134850" y="14420849"/>
-            <a:ext cx="1400175" cy="1400175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="133" name="図 132" descr="すみっコぐらしofficial web site プロフィール">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000085000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId15">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="21089" t="33674" r="23810" b="38053"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="12275525" y="14182422"/>
-            <a:ext cx="1085851" cy="557149"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="137" name="図 136" descr="爆発の煙イラストのフリー素材｜イラストイメージ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000089000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId25">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9667874" y="13801724"/>
-          <a:ext cx="1466851" cy="1466851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="bg1">
-              <a:alpha val="60000"/>
-            </a:schemeClr>
-          </a:glow>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>663428</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="図 137" descr="フラットなフォルダのイラスト | SOZAIC.com">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId27">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15554325" y="13954124"/>
-          <a:ext cx="2254103" cy="1514475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>479085</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>79915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="矢印: 右 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17659350" y="14554200"/>
-          <a:ext cx="650535" cy="289465"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>641010</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>41815</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="矢印: 右 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20564475" y="14516100"/>
-          <a:ext cx="650535" cy="289465"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="図 140" descr="すみっコぐらしofficial web site プロフィール">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId15">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="21089" t="33674" r="23810" b="17347"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14392274" y="14068425"/>
-          <a:ext cx="1543051" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>615803</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="142" name="図 141" descr="フラットなフォルダのイラスト | SOZAIC.com">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId27">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18249900" y="13935074"/>
-          <a:ext cx="2254103" cy="1514475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="143" name="図 142" descr="爆発の煙イラストのフリー素材｜イラストイメージ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00008F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId29">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18611849" y="13877924"/>
-          <a:ext cx="1466851" cy="1466851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:effectLst>
-          <a:glow rad="101600">
-            <a:schemeClr val="bg1">
-              <a:alpha val="60000"/>
-            </a:schemeClr>
-          </a:glow>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>644378</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="146" name="グループ化 145">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000092000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="20564475" y="13163550"/>
-          <a:ext cx="2208383" cy="1809749"/>
-          <a:chOff x="21002625" y="13639800"/>
-          <a:chExt cx="2254103" cy="1885949"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="144" name="図 143" descr="フラットなフォルダのイラスト | SOZAIC.com">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000090000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId27">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="21002625" y="14011274"/>
-            <a:ext cx="2254103" cy="1514475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="145" name="図 144" descr="すみっコぐらしofficial web site プロフィール">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000091000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId15">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="21089" t="33674" r="23810" b="40476"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="21326474" y="13639800"/>
-            <a:ext cx="1543051" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="図 147" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000094000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent3">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="22479000" y="14325599"/>
-          <a:ext cx="619125" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="図 148" descr="【オブジェクト・エフェクト】毒のエフェクト 透過素材 4カラー | 七三ゆきのアトリエ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000095000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent3">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21269325" y="14782800"/>
-          <a:ext cx="685800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -23849,13 +24635,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>117184</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23985,13 +24771,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -25466,12 +26252,12 @@
     </row>
     <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -25482,162 +26268,162 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B1:Q33"/>
+  <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
-        <v>198</v>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>229</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-    </row>
-    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="15" t="s">
-        <v>196</v>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
+        <v>199</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>231</v>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
+        <v>140</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="22"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="16" t="s">
-        <v>206</v>
+      <c r="B5" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="25"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
-        <v>235</v>
+      <c r="B6" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="23" t="s">
-        <v>237</v>
+      <c r="N6" s="15" t="s">
+        <v>235</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="12" t="s">
-        <v>236</v>
+      <c r="B7" s="25" t="s">
+        <v>234</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>208</v>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
+        <v>206</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -25645,140 +26431,124 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="K14" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
-      </c>
-      <c r="K15" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="6" t="s">
-        <v>214</v>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" t="s">
-        <v>216</v>
+      <c r="B24" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" t="s">
-        <v>220</v>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>217</v>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>232</v>
       </c>
-      <c r="C33" t="s">
-        <v>218</v>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -25790,6 +26560,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25801,7 +26584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -25966,52 +26749,52 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -26022,7 +26805,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -26048,89 +26831,109 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>35</v>
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>140</v>
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -26141,15 +26944,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -26184,7 +26987,7 @@
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
@@ -26220,7 +27023,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
@@ -26288,6 +27091,89 @@
         <v>20</v>
       </c>
     </row>
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26316,7 +27202,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
@@ -26341,12 +27227,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
@@ -26660,7 +27546,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
@@ -26670,47 +27556,47 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
@@ -26740,7 +27626,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
@@ -26750,32 +27636,32 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
@@ -26785,17 +27671,17 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.45">
@@ -26805,12 +27691,12 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -26835,7 +27721,7 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
@@ -26850,7 +27736,7 @@
     </row>
     <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
@@ -26865,7 +27751,7 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -26878,7 +27764,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -26891,12 +27777,12 @@
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -26906,39 +27792,12 @@
     </row>
     <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="J66" t="s">
-        <v>137</v>
-      </c>
-      <c r="V66" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>133</v>
-      </c>
-      <c r="J67" t="s">
-        <v>138</v>
-      </c>
-      <c r="V67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="2" t="s">
-        <v>136</v>
+    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +27818,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F538FBE4-D862-493B-A385-C863232789C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448587E1-CEED-4EF4-880D-69CF3D9CF601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -3411,22 +3411,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3434,6 +3437,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3450,16 +3456,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -26216,7 +26216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -26276,85 +26276,85 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="20" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>204</v>
       </c>
       <c r="C5" s="14"/>
@@ -26377,10 +26377,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="14"/>
@@ -26398,36 +26398,36 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="17" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -26549,6 +26549,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -26560,19 +26573,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26584,7 +26584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448587E1-CEED-4EF4-880D-69CF3D9CF601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="252">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3084,11 +3083,88 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>・パフォーマンス表示画面</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パフォーマンス表示画面</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・使用率の上昇に応じてファンの音を入れる</t>
+    <rPh sb="1" eb="4">
+      <t>シヨウリツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・オレンジで入れ始める→赤で音量がデカくなる</t>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・または、赤になってから音を入れる(1/1のステージの場合鳴り続けるから)</t>
+    <rPh sb="6" eb="7">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3377,7 +3453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3411,25 +3487,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3437,9 +3510,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3456,11 +3526,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8846,8 +8925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="220980" y="670560"/>
-          <a:ext cx="7782197" cy="3947160"/>
+          <a:off x="220980" y="703217"/>
+          <a:ext cx="7842069" cy="4241074"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3947160"/>
         </a:xfrm>
@@ -9881,8 +9960,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="18192750"/>
-          <a:ext cx="7782197" cy="3981451"/>
+          <a:off x="228600" y="19482707"/>
+          <a:ext cx="7842069" cy="4275365"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -10439,8 +10518,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9078686" y="18192750"/>
-          <a:ext cx="7786007" cy="3955286"/>
+          <a:off x="9149443" y="19482707"/>
+          <a:ext cx="7845878" cy="4232872"/>
           <a:chOff x="9220200" y="12992100"/>
           <a:chExt cx="7905750" cy="4118610"/>
         </a:xfrm>
@@ -11385,8 +11464,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="22783800"/>
-          <a:ext cx="7782197" cy="3981451"/>
+          <a:off x="266700" y="24400329"/>
+          <a:ext cx="7842069" cy="4275365"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -11958,8 +12037,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9078686" y="22774275"/>
-          <a:ext cx="7782197" cy="3981451"/>
+          <a:off x="9149443" y="24390804"/>
+          <a:ext cx="7842068" cy="4275365"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -12531,8 +12610,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10657114" y="25078958"/>
-          <a:ext cx="2766332" cy="1404419"/>
+          <a:off x="10738757" y="26858772"/>
+          <a:ext cx="2788104" cy="1502391"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -12775,8 +12854,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17936935" y="22763389"/>
-          <a:ext cx="7776755" cy="3980634"/>
+          <a:off x="18078450" y="24379918"/>
+          <a:ext cx="7842068" cy="4265839"/>
           <a:chOff x="228600" y="12992100"/>
           <a:chExt cx="7901940" cy="4152901"/>
         </a:xfrm>
@@ -13239,8 +13318,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18836368" y="23508941"/>
-          <a:ext cx="5840866" cy="2961532"/>
+          <a:off x="18983325" y="25174455"/>
+          <a:ext cx="5889852" cy="3173804"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -13605,8 +13684,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26982962" y="22742977"/>
-          <a:ext cx="7764239" cy="3937907"/>
+          <a:off x="27195234" y="24359506"/>
+          <a:ext cx="7829552" cy="4215492"/>
           <a:chOff x="243840" y="586740"/>
           <a:chExt cx="7734300" cy="3939540"/>
         </a:xfrm>
@@ -14606,8 +14685,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20132107" y="26491406"/>
-          <a:ext cx="315378" cy="221386"/>
+          <a:off x="20289950" y="28369192"/>
+          <a:ext cx="320820" cy="237714"/>
           <a:chOff x="18484453" y="23336250"/>
           <a:chExt cx="325072" cy="230911"/>
         </a:xfrm>
@@ -15015,8 +15094,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8591769" y="27755175"/>
-          <a:ext cx="2340641" cy="1833448"/>
+          <a:off x="8657084" y="29730932"/>
+          <a:ext cx="2362411" cy="1964077"/>
           <a:chOff x="6551820" y="25135800"/>
           <a:chExt cx="2375218" cy="1887236"/>
         </a:xfrm>
@@ -15266,8 +15345,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12683321" y="27769341"/>
-          <a:ext cx="2340640" cy="1785060"/>
+          <a:off x="12781293" y="29745098"/>
+          <a:ext cx="2362411" cy="1915689"/>
           <a:chOff x="9798768" y="22785525"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -16003,8 +16082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4422985" y="27742448"/>
-          <a:ext cx="2340640" cy="1785060"/>
+          <a:off x="4455642" y="29718205"/>
+          <a:ext cx="2362411" cy="1915689"/>
           <a:chOff x="3429344" y="22781043"/>
           <a:chExt cx="2375218" cy="1838848"/>
         </a:xfrm>
@@ -18003,8 +18082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4752974" y="31261049"/>
-          <a:ext cx="2096691" cy="2306945"/>
+          <a:off x="4791074" y="33481735"/>
+          <a:ext cx="2113019" cy="2470230"/>
           <a:chOff x="4819649" y="30708599"/>
           <a:chExt cx="2129348" cy="2402195"/>
         </a:xfrm>
@@ -18358,8 +18437,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8907235" y="31184849"/>
-          <a:ext cx="1679263" cy="1638300"/>
+          <a:off x="8977992" y="33405535"/>
+          <a:ext cx="1690149" cy="1752600"/>
           <a:chOff x="5762624" y="30537149"/>
           <a:chExt cx="1701035" cy="1704975"/>
         </a:xfrm>
@@ -20683,8 +20762,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6244590" y="9039225"/>
-          <a:ext cx="5605060" cy="2847080"/>
+          <a:off x="6361579" y="9301443"/>
+          <a:ext cx="5709051" cy="2935382"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -22030,8 +22109,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5650230" y="13782675"/>
-          <a:ext cx="5605060" cy="2854700"/>
+          <a:off x="5754221" y="14186087"/>
+          <a:ext cx="5709050" cy="2935382"/>
           <a:chOff x="6391275" y="8886825"/>
           <a:chExt cx="5726980" cy="2969000"/>
         </a:xfrm>
@@ -24146,7 +24225,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11115675" y="23002875"/>
+          <a:off x="11115675" y="20383500"/>
           <a:ext cx="2762250" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -24869,6 +24948,1171 @@
             </a:rPr>
             <a:t>・攻略までの時間で評価</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>591230</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="図 97"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="22374225"/>
+          <a:ext cx="5153705" cy="2886075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>45675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="正方形/長方形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="22298025"/>
+          <a:ext cx="5381625" cy="3227025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>153520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>42022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5763746" y="24391844"/>
+          <a:ext cx="2438960" cy="1065119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>経過時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="22364700"/>
+          <a:ext cx="2447925" cy="647699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="22888575"/>
+          <a:ext cx="4838700" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315829</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>5308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5784300" y="22921632"/>
+          <a:ext cx="2373582" cy="380705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>534521</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>43703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>553570</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10787903" y="22870085"/>
+          <a:ext cx="2753285" cy="807944"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68233"/>
+            <a:gd name="adj2" fmla="val -21809"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示という体でグラフ的な物を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608480</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>16808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>118781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076951" y="25431749"/>
+          <a:ext cx="2753285" cy="807944"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -30382"/>
+            <a:gd name="adj2" fmla="val -86996"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゲーム内での経過時間などを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>570941</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>70598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>275666</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8090088" y="23838274"/>
+          <a:ext cx="2438960" cy="1240491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>生存ウイルス数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>体</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>死亡ウイルス数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>体</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>フォルダの数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>個</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>ブロック数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>個</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301999</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>137831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6724</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>26332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5770470" y="23670184"/>
+          <a:ext cx="2438960" cy="1065119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>使用率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>50%</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>255494</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>300317</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>156323</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13926670" y="22285699"/>
+          <a:ext cx="4829735" cy="2344271"/>
+          <a:chOff x="13837024" y="22868404"/>
+          <a:chExt cx="4829735" cy="2344271"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13837024" y="24195181"/>
+            <a:ext cx="4823011" cy="1017494"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13848052" y="24497179"/>
+            <a:ext cx="4619241" cy="380705"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13843748" y="22868404"/>
+            <a:ext cx="4823011" cy="1017494"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13854777" y="23170402"/>
+            <a:ext cx="3357458" cy="380705"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>272303</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>218515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13943479" y="24927486"/>
+          <a:ext cx="3190315" cy="1361514"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22666"/>
+            <a:gd name="adj2" fmla="val -84373"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コスト上限に近くなると色が変わる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>通常：青</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>後</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>個：オレンジ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>動かしたらヤバい：赤</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -26213,49 +27457,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -26267,94 +27511,94 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="22" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C5" s="14"/>
@@ -26377,10 +27621,10 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="25"/>
+      <c r="Q5" s="23"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="14"/>
@@ -26398,43 +27642,43 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="24"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="18" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>230</v>
       </c>
@@ -26442,17 +27686,17 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>208</v>
       </c>
@@ -26460,12 +27704,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>210</v>
       </c>
@@ -26473,32 +27717,32 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>213</v>
       </c>
@@ -26506,22 +27750,22 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>217</v>
       </c>
@@ -26529,17 +27773,17 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>215</v>
       </c>
@@ -26549,19 +27793,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -26573,6 +27804,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26581,154 +27825,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -26740,59 +27984,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -26804,135 +28048,140 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -26943,170 +28192,170 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>243</v>
       </c>
@@ -27144,32 +28393,32 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -27183,297 +28432,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -27487,269 +28736,269 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -27763,41 +29012,61 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -27809,14 +29078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="258">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3157,6 +3157,36 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リトライ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページのアイコン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスクマネージャー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毒ガスエフェクト</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴミ箱エフェクト</t>
+    <rPh sb="2" eb="3">
+      <t>バコ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3487,22 +3517,28 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3510,6 +3546,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3526,20 +3565,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5042,8 +5072,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5806441" y="17403777"/>
-          <a:ext cx="1369695" cy="1571927"/>
+          <a:off x="5928361" y="18127677"/>
+          <a:ext cx="1400175" cy="1638602"/>
           <a:chOff x="12134850" y="14182422"/>
           <a:chExt cx="1400175" cy="1638602"/>
         </a:xfrm>
@@ -5671,8 +5701,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6484621" y="20029170"/>
-          <a:ext cx="2208383" cy="1809749"/>
+          <a:off x="6621781" y="20857845"/>
+          <a:ext cx="2254103" cy="1885949"/>
           <a:chOff x="21002625" y="13639800"/>
           <a:chExt cx="2254103" cy="1885949"/>
         </a:xfrm>
@@ -5954,8 +5984,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="365760" y="14531340"/>
-          <a:ext cx="5135881" cy="2228851"/>
+          <a:off x="365760" y="15131415"/>
+          <a:ext cx="5257801" cy="2324101"/>
           <a:chOff x="723899" y="13554074"/>
           <a:chExt cx="5257801" cy="2800351"/>
         </a:xfrm>
@@ -6444,8 +6474,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20954" y="4899660"/>
-          <a:ext cx="3055621" cy="1828800"/>
+          <a:off x="20954" y="5099685"/>
+          <a:ext cx="3116581" cy="1905000"/>
           <a:chOff x="68579" y="3489960"/>
           <a:chExt cx="3055621" cy="1828800"/>
         </a:xfrm>
@@ -6568,8 +6598,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="104775" y="11795760"/>
-          <a:ext cx="7056120" cy="2148840"/>
+          <a:off x="104775" y="12281535"/>
+          <a:ext cx="7208520" cy="2244090"/>
           <a:chOff x="152400" y="6766560"/>
           <a:chExt cx="7056120" cy="2209800"/>
         </a:xfrm>
@@ -7014,8 +7044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="47625" y="15853411"/>
-          <a:ext cx="9721215" cy="1846263"/>
+          <a:off x="47625" y="16510636"/>
+          <a:ext cx="9934575" cy="1922463"/>
           <a:chOff x="47625" y="13862686"/>
           <a:chExt cx="9934575" cy="1922463"/>
         </a:xfrm>
@@ -7990,8 +8020,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="49529" y="7233286"/>
-          <a:ext cx="6547264" cy="2400301"/>
+          <a:off x="49529" y="7528561"/>
+          <a:ext cx="6684424" cy="2505076"/>
           <a:chOff x="49529" y="7157086"/>
           <a:chExt cx="6684424" cy="2505076"/>
         </a:xfrm>
@@ -27460,7 +27490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -27514,164 +27544,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="20" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="17" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27708,41 +27738,61 @@
       <c r="C16" t="s">
         <v>222</v>
       </c>
+      <c r="N16" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>210</v>
       </c>
       <c r="C18" t="s">
         <v>211</v>
       </c>
+      <c r="N18" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>223</v>
       </c>
+      <c r="N19" t="s">
+        <v>255</v>
+      </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>225</v>
       </c>
+      <c r="N20" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>224</v>
       </c>
+      <c r="N21" t="s">
+        <v>257</v>
+      </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>213</v>
       </c>
@@ -27750,22 +27800,22 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>217</v>
       </c>
@@ -27773,12 +27823,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>232</v>
       </c>
@@ -27793,6 +27843,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27804,19 +27867,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29049,7 +29099,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>248</v>
       </c>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="252">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3157,36 +3157,6 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リトライ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ページのアイコン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タスクマネージャー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>毒ガスエフェクト</t>
-    <rPh sb="0" eb="1">
-      <t>ドク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゴミ箱エフェクト</t>
-    <rPh sb="2" eb="3">
-      <t>バコ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3520,25 +3490,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3546,9 +3513,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3565,10 +3529,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27550,90 +27520,90 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15" t="s">
         <v>202</v>
       </c>
@@ -27651,10 +27621,10 @@
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="15"/>
@@ -27672,36 +27642,36 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="19" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27738,61 +27708,41 @@
       <c r="C16" t="s">
         <v>222</v>
       </c>
-      <c r="N16" t="s">
-        <v>252</v>
-      </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="N17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>210</v>
       </c>
       <c r="C18" t="s">
         <v>211</v>
       </c>
-      <c r="N18" t="s">
-        <v>254</v>
-      </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>223</v>
       </c>
-      <c r="N19" t="s">
-        <v>255</v>
-      </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>225</v>
       </c>
-      <c r="N20" t="s">
-        <v>256</v>
-      </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>224</v>
       </c>
-      <c r="N21" t="s">
-        <v>257</v>
-      </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>213</v>
       </c>
@@ -27800,22 +27750,22 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>217</v>
       </c>
@@ -27823,12 +27773,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>232</v>
       </c>
@@ -27843,19 +27793,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27867,6 +27804,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -3490,29 +3490,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3529,16 +3535,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27520,158 +27520,158 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="21" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="22"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="23"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="24"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="23"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="18" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27793,6 +27793,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27804,19 +27817,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -3490,35 +3490,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3535,10 +3526,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27520,111 +27520,111 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
         <v>202</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="16" t="s">
         <v>236</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="28" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="16"/>
@@ -27636,42 +27636,42 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="19" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27793,19 +27793,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27817,6 +27804,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="9"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="注意事項" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="259">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3157,6 +3157,91 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空白を開けて飛ぶと、ジャンプ力が下がる</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>片方がゴールするとファイルが残る</t>
+    <rPh sb="0" eb="2">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おとりファイルの描画順</t>
+    <rPh sb="8" eb="10">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>感染ファイルのサイズ変更</t>
+    <rPh sb="0" eb="2">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウイルス移動中はモードチェンジ不可</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コストオーバーで死亡</t>
+    <rPh sb="8" eb="10">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>片方がゴールに入ったらもう片方は入らない</t>
+    <rPh sb="0" eb="2">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3490,26 +3575,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3526,19 +3620,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27520,111 +27605,111 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="19"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="20" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="16" t="s">
         <v>202</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="16" t="s">
         <v>236</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>233</v>
       </c>
       <c r="C6" s="16"/>
@@ -27636,42 +27721,42 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="17" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27685,15 +27770,29 @@
       <c r="C11" t="s">
         <v>207</v>
       </c>
+      <c r="M11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>220</v>
       </c>
+      <c r="M12" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>221</v>
+      </c>
+      <c r="M13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -27703,13 +27802,24 @@
       <c r="C15" t="s">
         <v>209</v>
       </c>
+      <c r="M15" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>222</v>
       </c>
+      <c r="M16" t="s">
+        <v>257</v>
+      </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="M17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>210</v>
       </c>
@@ -27717,32 +27827,32 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>213</v>
       </c>
@@ -27750,22 +27860,22 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>217</v>
       </c>
@@ -27773,12 +27883,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>232</v>
       </c>
@@ -27793,6 +27903,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27804,19 +27927,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28739,7 +28849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -3575,35 +3575,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3617,13 +3605,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27605,158 +27605,158 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="26"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27903,19 +27903,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27927,6 +27914,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="261">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3161,87 +3161,116 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>空白を開けて飛ぶと、ジャンプ力が下がる</t>
+    <t>現在存在するバグ</t>
     <rPh sb="0" eb="2">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>リョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>サ</t>
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソンザイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>片方がゴールするとファイルが残る</t>
-    <rPh sb="0" eb="2">
+    <t>　・ゴールが2つ以上のステージで、片方がゴールした時、おとりファイルが残り続ける</t>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>カタホウ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
       <t>ノコ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツヅ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>おとりファイルの描画順</t>
+    <t>　・ゴールが2つ以上のステージで、片方がゴールした時、もう片方も同じ所に入れる</t>
     <rPh sb="8" eb="10">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジュン</t>
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>感染ファイルのサイズ変更</t>
-    <rPh sb="0" eb="2">
-      <t>カンセン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
+    <t>　・コストオーバーでブルスク</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ウイルス移動中はモードチェンジ不可</t>
-    <rPh sb="4" eb="6">
+    <t>　・ウイルスの移動中はツールバーのボタンが反応しないように</t>
+    <rPh sb="7" eb="9">
       <t>イドウ</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="9" eb="10">
       <t>チュウ</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>フカ</t>
+    <rPh sb="21" eb="23">
+      <t>ハンノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コストオーバーで死亡</t>
-    <rPh sb="8" eb="10">
-      <t>シボウ</t>
+    <t>　・おとりファイルや感染ファイルの描画順変更</t>
+    <rPh sb="10" eb="12">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>片方がゴールに入ったらもう片方は入らない</t>
-    <rPh sb="0" eb="2">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ハイ</t>
+    <t>調整中のバグ</t>
+    <rPh sb="0" eb="3">
+      <t>チョウセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ウイルスのRayの向きが変わらない</t>
+    <rPh sb="11" eb="12">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・感染フォルダのサイズ調整</t>
+    <rPh sb="2" eb="4">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3575,23 +3604,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3605,25 +3646,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27605,162 +27634,165 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="19" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="21"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="22" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="21"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="16" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>219</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
@@ -27770,29 +27802,21 @@
       <c r="C11" t="s">
         <v>207</v>
       </c>
-      <c r="M11" t="s">
-        <v>252</v>
+      <c r="K11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>220</v>
       </c>
-      <c r="M12" t="s">
-        <v>253</v>
+      <c r="K12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>221</v>
-      </c>
-      <c r="M13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="M14" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -27802,57 +27826,66 @@
       <c r="C15" t="s">
         <v>209</v>
       </c>
-      <c r="M15" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>222</v>
       </c>
-      <c r="M16" t="s">
-        <v>257</v>
-      </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="M17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>210</v>
       </c>
       <c r="C18" t="s">
         <v>211</v>
       </c>
+      <c r="K18" s="6" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>223</v>
       </c>
+      <c r="K19" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>225</v>
       </c>
+      <c r="K20" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>224</v>
       </c>
+      <c r="K21" t="s">
+        <v>255</v>
+      </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>246</v>
       </c>
+      <c r="K22" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>213</v>
       </c>
@@ -27860,22 +27893,22 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>217</v>
       </c>
@@ -27883,12 +27916,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>232</v>
       </c>
@@ -27903,6 +27936,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27914,19 +27960,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="260">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3261,16 +3261,6 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・感染フォルダのサイズ調整</t>
-    <rPh sb="2" eb="4">
-      <t>カンセン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3604,35 +3594,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3646,13 +3624,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27634,158 +27624,158 @@
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="26"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27809,9 +27799,6 @@
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>220</v>
-      </c>
-      <c r="K12" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
@@ -27936,19 +27923,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27960,6 +27934,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="258">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3190,31 +3190,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・ゴールが2つ以上のステージで、片方がゴールした時、もう片方も同じ所に入れる</t>
-    <rPh sb="8" eb="10">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>トコロ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　・コストオーバーでブルスク</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3251,16 +3226,6 @@
     <t>調整中のバグ</t>
     <rPh sb="0" eb="3">
       <t>チョウセイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　・ウイルスのRayの向きが変わらない</t>
-    <rPh sb="11" eb="12">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3594,23 +3559,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3624,25 +3601,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27618,171 +27583,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="19" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="21"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="22" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="21"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="16" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
@@ -27791,9 +27758,6 @@
       </c>
       <c r="C11" t="s">
         <v>207</v>
-      </c>
-      <c r="K11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -27842,16 +27806,13 @@
       <c r="C20" t="s">
         <v>225</v>
       </c>
-      <c r="K20" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
@@ -27859,12 +27820,12 @@
         <v>246</v>
       </c>
       <c r="K22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -27923,6 +27884,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27934,19 +27908,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JapanGameContest2023/仕様書.xlsx
+++ b/JapanGameContest2023/仕様書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="259">
   <si>
     <t>・移動</t>
     <rPh sb="1" eb="3">
@@ -3226,6 +3226,16 @@
     <t>調整中のバグ</t>
     <rPh sb="0" eb="3">
       <t>チョウセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　・ゴール置き直し</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3559,35 +3569,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3601,13 +3599,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27583,166 +27593,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="26"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="25"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
@@ -27759,15 +27767,24 @@
       <c r="C11" t="s">
         <v>207</v>
       </c>
+      <c r="K11" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>220</v>
       </c>
+      <c r="K12" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>221</v>
+      </c>
+      <c r="K13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -27799,33 +27816,25 @@
         <v>223</v>
       </c>
       <c r="K19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>225</v>
       </c>
+      <c r="K20" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>224</v>
       </c>
-      <c r="K21" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>246</v>
-      </c>
-      <c r="K22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K23" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -27884,19 +27893,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F3:I3"/>
@@ -27908,6 +27904,19 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
